--- a/answer7.xlsx
+++ b/answer7.xlsx
@@ -387,7802 +387,7802 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>465.226898004878</v>
+        <v>457.8845528803579</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1026.938391935384</v>
+        <v>1378.492759064735</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>371.1661873461357</v>
+        <v>361.7645199389298</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>826.595321398472</v>
+        <v>781.7795415877671</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>418.256299322154</v>
+        <v>412.8904086787452</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>428.2228300343466</v>
+        <v>419.965963709641</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>654.4829978038238</v>
+        <v>775.9576628180491</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>386.478440923993</v>
+        <v>417.0488502385316</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>396.4135036409567</v>
+        <v>447.110299246312</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>346.2013134439812</v>
+        <v>355.4676928753948</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>333.2300681994222</v>
+        <v>355.7713082746607</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>213.81689268954</v>
+        <v>214.9119194915809</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>204.0970536674457</v>
+        <v>202.9794208730942</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>593.5628367006511</v>
+        <v>627.6466231725867</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>432.3058670746751</v>
+        <v>398.2483312613161</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>793.8273337916341</v>
+        <v>722.4730672726456</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>319.7056452805447</v>
+        <v>330.675894969271</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1110.100296729665</v>
+        <v>901.8011637833702</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>409.2094674055302</v>
+        <v>366.8660187954936</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>318.3683191309228</v>
+        <v>306.407864391576</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>333.3738604904811</v>
+        <v>365.1109361742255</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>467.9520887011287</v>
+        <v>448.3062791752313</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>679.9238274621299</v>
+        <v>668.3596640873391</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>824.8891622587358</v>
+        <v>648.3735744719149</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>352.4670774240476</v>
+        <v>344.280312515035</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>400.6142255987314</v>
+        <v>435.9548550903515</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>353.4178020721071</v>
+        <v>318.6973786558476</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>61.99590485344615</v>
+        <v>64.72238970760515</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>353.9918468011565</v>
+        <v>328.8144412133972</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>308.1144714523702</v>
+        <v>374.660607158352</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>325.7050064561694</v>
+        <v>326.9660865376402</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>278.8155743871576</v>
+        <v>283.5520577712788</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>305.9358768561768</v>
+        <v>304.4398511732131</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>181.0845655732151</v>
+        <v>181.1216695253196</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>970.2564524629738</v>
+        <v>976.5165275157333</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>402.0557910266571</v>
+        <v>379.7116227071826</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>372.6220035264293</v>
+        <v>330.7969151049408</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>149.3583249399865</v>
+        <v>161.0200833784599</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2345.016594196551</v>
+        <v>1953.248045441779</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>306.0281510462942</v>
+        <v>305.5406505145884</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>611.9504948089142</v>
+        <v>599.5147454925607</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>904.0308527872717</v>
+        <v>951.0770682716702</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>550.9116472206149</v>
+        <v>475.8688573009679</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>369.1973145211442</v>
+        <v>400.4087404564356</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>325.9815927397272</v>
+        <v>284.2923301408451</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>257.0926869073936</v>
+        <v>244.0687859800012</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>883.7425782103644</v>
+        <v>813.8777537938756</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>388.2972697250517</v>
+        <v>388.2150657556327</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>589.3421148728759</v>
+        <v>536.1947469964288</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>761.5622377615788</v>
+        <v>685.8326140171796</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>455.6135216760168</v>
+        <v>469.6498377202423</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>535.8797063921795</v>
+        <v>514.1125067372151</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>323.9462886695762</v>
+        <v>341.61866648446</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>296.6786842638043</v>
+        <v>307.6390907892594</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>791.0272004725506</v>
+        <v>742.0005696500044</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>562.5186557086199</v>
+        <v>804.373962418353</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>373.3476381310127</v>
+        <v>349.3432008975477</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1397.313315131286</v>
+        <v>1426.860209771325</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>340.0270272580329</v>
+        <v>429.9869438472389</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>349.5813847625164</v>
+        <v>335.6735187349097</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>325.9975107914299</v>
+        <v>362.4939514064056</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>474.3151397882612</v>
+        <v>477.9955159552603</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>509.1433576036092</v>
+        <v>437.4458827297786</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>377.8713056423755</v>
+        <v>418.1306474709622</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>410.6485704694433</v>
+        <v>373.2976156052964</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>436.9060016939508</v>
+        <v>449.0100643856566</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>319.0235934113894</v>
+        <v>373.6469195785368</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>366.207122731385</v>
+        <v>404.6407662297533</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>236.9502192072353</v>
+        <v>237.4837213223688</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>625.3382938020103</v>
+        <v>638.2460078233647</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>140.7082060552445</v>
+        <v>143.3417329513422</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>205.420022610573</v>
+        <v>198.5466373498939</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>510.633311620061</v>
+        <v>476.6185689700194</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>542.5520887450414</v>
+        <v>584.032030340079</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>286.5171617731803</v>
+        <v>276.0596289133996</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>210.5239804987829</v>
+        <v>197.9774625510353</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>260.0301334806672</v>
+        <v>272.5168280221368</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>583.3166521646091</v>
+        <v>606.7888293102982</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>329.1778154282944</v>
+        <v>304.9697491836858</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>314.4594124144655</v>
+        <v>354.282033238085</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>232.7300716773166</v>
+        <v>265.3121231757506</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>433.9649892854737</v>
+        <v>438.5856854537055</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>638.7104242753251</v>
+        <v>602.8040882378871</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>989.1990514292863</v>
+        <v>905.5293011390905</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>361.9211522707695</v>
+        <v>337.4468905735518</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>991.2956889259741</v>
+        <v>916.0947672954712</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>455.0161164104758</v>
+        <v>493.3816815416759</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>256.7390871245251</v>
+        <v>260.1661602250445</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>755.7855345202298</v>
+        <v>665.7674962205164</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>307.3117829998833</v>
+        <v>330.2685265016003</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>540.6913802697557</v>
+        <v>581.3604346383081</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>352.4120989473011</v>
+        <v>372.6987272707287</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>398.3774130082177</v>
+        <v>394.5374249756309</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>280.1878175312686</v>
+        <v>295.9631143657745</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>411.7244693646686</v>
+        <v>347.8307138339867</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>729.8440330995065</v>
+        <v>707.8226275622389</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1028.554824178517</v>
+        <v>972.5059066129843</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>121.7413757872521</v>
+        <v>124.0596961865731</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>383.9410871674893</v>
+        <v>385.8373337312201</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>113.3671811959089</v>
+        <v>101.4261532455219</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>840.7067611594559</v>
+        <v>806.3531786322294</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>384.6116600520218</v>
+        <v>343.5871819069728</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>818.5273487955709</v>
+        <v>757.0341128614189</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>364.289969299531</v>
+        <v>345.313420785389</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>632.1270812525321</v>
+        <v>591.6921568303749</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>472.1876759319223</v>
+        <v>497.3581114902424</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>412.0727088956428</v>
+        <v>415.4535436937877</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>860.7101549025466</v>
+        <v>872.5911029306482</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>705.9334292637199</v>
+        <v>753.0127408874212</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>338.43845290036</v>
+        <v>354.3248994056381</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>344.1825024189473</v>
+        <v>348.1465357154006</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>248.3398754043539</v>
+        <v>308.1801870340323</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>207.0700675228286</v>
+        <v>205.7891650618283</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>334.3128154311249</v>
+        <v>354.1244873023317</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>339.4839838094704</v>
+        <v>340.8544434487256</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>230.9021094307238</v>
+        <v>241.4886699166013</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>322.6389251041606</v>
+        <v>328.4986228590175</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>389.4151185309987</v>
+        <v>405.3198075584006</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>323.066553411809</v>
+        <v>353.449974719947</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>548.9357785317937</v>
+        <v>530.4024208292677</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>579.3503066878893</v>
+        <v>531.9462159127257</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>298.3890192243769</v>
+        <v>259.5885329066979</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>619.0923186809771</v>
+        <v>491.5710797265304</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>698.5615595802183</v>
+        <v>807.6072599949689</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>374.1233066122759</v>
+        <v>358.8095760043257</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>587.5181038408604</v>
+        <v>601.5265680687014</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>374.9444731271171</v>
+        <v>361.4889860698955</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>461.0497647196563</v>
+        <v>438.2484610847849</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>997.9608651909518</v>
+        <v>939.5177972182054</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>332.6443801117747</v>
+        <v>332.8062231570798</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>914.2570041604373</v>
+        <v>1027.25551061505</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>521.5550746630163</v>
+        <v>582.395861022351</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>440.8294703456344</v>
+        <v>482.3212399565319</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>905.8063905948527</v>
+        <v>937.9684781310842</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>247.201714470136</v>
+        <v>216.7119958808199</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>376.3913024246928</v>
+        <v>395.0317238688384</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>422.1902248236859</v>
+        <v>460.096200236572</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>361.0653439443893</v>
+        <v>389.3846433380495</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>243.7392666947537</v>
+        <v>244.8357370456039</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>507.2234066606456</v>
+        <v>412.5515880222193</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>213.3274835400657</v>
+        <v>217.4548879777424</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>321.6930880870448</v>
+        <v>333.5371283266124</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>910.9200120710162</v>
+        <v>994.3792521438681</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>398.8864603190684</v>
+        <v>404.3966352043747</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>767.0608443663453</v>
+        <v>767.027553024305</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>924.9057079062217</v>
+        <v>1007.346212924663</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>374.9532922371407</v>
+        <v>473.376656838629</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>615.4166789126381</v>
+        <v>598.4563083148709</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>123.4512503063678</v>
+        <v>123.9812498513562</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>349.8471140802692</v>
+        <v>339.8390560321569</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>371.9151046201359</v>
+        <v>393.7684648738557</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>123.2359127421174</v>
+        <v>124.9453650572247</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>396.3574068960278</v>
+        <v>444.7989693097728</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>448.0237654393426</v>
+        <v>429.0435969920609</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>500.9339705673361</v>
+        <v>496.7588090723798</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>386.3210003279222</v>
+        <v>307.5846256187243</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>362.6448658823332</v>
+        <v>331.2657859086157</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>250.4481186982488</v>
+        <v>272.5415766601162</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>392.9311899033726</v>
+        <v>440.2285845271121</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>515.0986524740829</v>
+        <v>524.2887335283958</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>257.9938855783096</v>
+        <v>211.3155264511649</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>334.7702560255318</v>
+        <v>358.7667551807663</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>721.0557486508339</v>
+        <v>723.4598453874041</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>653.62627062233</v>
+        <v>573.3380007951018</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>654.8092589431956</v>
+        <v>811.7083582230584</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>629.6084424510852</v>
+        <v>636.5439725813807</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>403.2787971218781</v>
+        <v>383.4278407404522</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>338.8656112359718</v>
+        <v>402.3661110700781</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>471.077235717903</v>
+        <v>509.429516782549</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>321.322197373853</v>
+        <v>305.564380380579</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>459.8193186427501</v>
+        <v>491.5063328247172</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>287.8292569120197</v>
+        <v>301.5714438335278</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>323.4161262032594</v>
+        <v>283.6208824646496</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>544.3117919353533</v>
+        <v>572.3830020765841</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>151.8208742460462</v>
+        <v>147.4173093779009</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>414.533080674559</v>
+        <v>431.8606790042118</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>1065.944754854621</v>
+        <v>1033.890383196923</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>295.5467900563424</v>
+        <v>307.5901280063467</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>224.1758213363032</v>
+        <v>229.7103723434032</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>361.2502249175919</v>
+        <v>399.0027316509292</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>787.7926332444353</v>
+        <v>726.8299788018169</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>384.9392897133679</v>
+        <v>383.4377313062296</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>887.294946790331</v>
+        <v>1006.693671883159</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>634.4775454891268</v>
+        <v>609.7526372007309</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>510.1833643131473</v>
+        <v>626.1994948773835</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>378.4037196720486</v>
+        <v>384.7798972029821</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>376.1788727706969</v>
+        <v>325.1363070216215</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>440.9793744361382</v>
+        <v>492.098938024093</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>323.3720150704499</v>
+        <v>320.2060294113116</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>322.1843044220542</v>
+        <v>319.8662101751427</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>521.0602990825814</v>
+        <v>579.055573072964</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>431.0535332408381</v>
+        <v>423.5800222029416</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>298.1232421390614</v>
+        <v>289.0549561345447</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>489.6557629130315</v>
+        <v>453.3105641170107</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>670.5638129555056</v>
+        <v>754.5074188878682</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>686.8964284875532</v>
+        <v>737.474156918661</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>383.9658118087572</v>
+        <v>375.4586363721259</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1201.835790639725</v>
+        <v>974.9378315440149</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>229.2346569801244</v>
+        <v>221.7395097132537</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>959.3776959283545</v>
+        <v>1020.864611358686</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>163.1450225997048</v>
+        <v>174.1573823586813</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>245.0196625332569</v>
+        <v>209.0490035655992</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>329.0666678082785</v>
+        <v>286.5651230369558</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>332.9413704015913</v>
+        <v>335.718238484576</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>401.9752248975798</v>
+        <v>422.5799448164519</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>502.1191109110612</v>
+        <v>469.6218770959616</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>694.682009095334</v>
+        <v>595.1374730779826</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>561.279562410312</v>
+        <v>563.4614945249729</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>338.5628919548124</v>
+        <v>311.3126136385763</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>605.653074589281</v>
+        <v>579.7435033178015</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>567.3987782670678</v>
+        <v>596.981257901249</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>130.6965715923574</v>
+        <v>137.4749229102638</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>882.9735346854644</v>
+        <v>700.8863675941462</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>626.9568053563598</v>
+        <v>625.4322043595572</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>390.0933718732053</v>
+        <v>409.6191541093868</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>423.5783037549039</v>
+        <v>401.0347299309896</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>731.7632179129819</v>
+        <v>736.9511863929014</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>355.8964970180139</v>
+        <v>382.6607246336007</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>464.0965385796429</v>
+        <v>469.1352270966212</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>191.3382782680195</v>
+        <v>210.491594284563</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>836.6976802334095</v>
+        <v>837.0155946329569</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>164.010774877633</v>
+        <v>142.709560957159</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>424.3321270335248</v>
+        <v>520.0205738242637</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>400.244530875923</v>
+        <v>391.1682549427376</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1037.061611335102</v>
+        <v>1375.545964915076</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>304.974268236877</v>
+        <v>258.6838394013828</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>540.8463760326994</v>
+        <v>517.5903742417885</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>502.9255728704619</v>
+        <v>453.1033718988419</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>350.7726758845728</v>
+        <v>330.5756539419135</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>449.7884532073138</v>
+        <v>476.0576305296057</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>564.7954506629335</v>
+        <v>576.2003536204811</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>335.0907038131442</v>
+        <v>333.2768448063506</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>473.0753558777015</v>
+        <v>431.8257873860583</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>181.5687864693365</v>
+        <v>185.4190369348269</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>356.37211728325</v>
+        <v>266.1651984203858</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>900.5535252096126</v>
+        <v>902.7026860786165</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>377.6278177292606</v>
+        <v>408.6350690599058</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>339.8336984239548</v>
+        <v>349.7549383274507</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>675.3779585942799</v>
+        <v>713.5058374692272</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>312.5354542607412</v>
+        <v>346.6528676844788</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1419.146921992257</v>
+        <v>1394.468054131293</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>307.7810777261035</v>
+        <v>303.0599409764745</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>407.7137486429251</v>
+        <v>451.5928086407046</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>395.4838246907674</v>
+        <v>417.2926404896471</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>343.6393202369201</v>
+        <v>385.2954689685437</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>121.5490613271381</v>
+        <v>121.4653275845197</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>536.4486685943415</v>
+        <v>508.4417875362507</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>831.9035113184427</v>
+        <v>883.3617452730369</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>604.2201290925963</v>
+        <v>553.4870114870658</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>223.0491129671821</v>
+        <v>248.7638791649669</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>298.6075124726535</v>
+        <v>299.8968132508679</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>343.5784712412566</v>
+        <v>305.0376540079134</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>864.7290247621341</v>
+        <v>1051.206530111946</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>461.2682844218153</v>
+        <v>478.0098782161952</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>365.9915152033349</v>
+        <v>349.3697948352445</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>428.2617126037906</v>
+        <v>444.5899557556591</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>343.6609937427564</v>
+        <v>415.5648944979191</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>441.0633340334541</v>
+        <v>472.0217907262654</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>432.8299847015263</v>
+        <v>404.3573839749087</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>300.4036413005495</v>
+        <v>360.8380855058325</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>504.4507103914232</v>
+        <v>541.9861472854672</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>862.1035223214924</v>
+        <v>852.0083679217759</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>401.266160754558</v>
+        <v>340.06812021731</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>361.1215235006803</v>
+        <v>394.7472698619563</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>855.362451982768</v>
+        <v>944.6249509420143</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1052.760915852822</v>
+        <v>943.6019176319792</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>267.3083011523162</v>
+        <v>279.1413847371045</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>259.651980710492</v>
+        <v>264.6942867684594</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>321.0313756867195</v>
+        <v>312.7907089932898</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>210.3799642396346</v>
+        <v>245.8851052960612</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>335.7559239336168</v>
+        <v>312.8730926604191</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>539.5865324369298</v>
+        <v>530.9109668875165</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>1003.797730335451</v>
+        <v>992.6068718270731</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>262.9084192865724</v>
+        <v>259.8524199001153</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>281.8789922131991</v>
+        <v>315.8233815649678</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>476.7224572187801</v>
+        <v>469.6371549181255</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>213.7493202297465</v>
+        <v>209.5671866773071</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>303.8005607152923</v>
+        <v>285.7748648155824</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>599.1871671964699</v>
+        <v>583.0988152790176</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>647.7544450808958</v>
+        <v>706.1879469978549</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>415.1146983436954</v>
+        <v>422.2998533814308</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>264.6197759430241</v>
+        <v>244.2751383799526</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>396.909342716904</v>
+        <v>418.5927280086518</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>924.9517793011303</v>
+        <v>837.165125758357</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>345.2617955175256</v>
+        <v>347.155814152531</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>282.9667514896097</v>
+        <v>282.7911235555959</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>301.0409653380279</v>
+        <v>304.4984640628076</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1156.314224151373</v>
+        <v>1215.323355130961</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>363.680119957386</v>
+        <v>373.5259308944769</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>390.9265695347501</v>
+        <v>413.0831554754437</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>454.818585230572</v>
+        <v>521.650669344632</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>394.3610833748769</v>
+        <v>415.9674991993543</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>318.7857130138908</v>
+        <v>291.219937649229</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>158.6187349988909</v>
+        <v>159.0389007983069</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>293.6395585647854</v>
+        <v>292.5210300210416</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>332.2348916720307</v>
+        <v>337.5904756574379</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>860.6806031579492</v>
+        <v>981.7935898391063</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>380.1880931935004</v>
+        <v>362.4192646232026</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>327.6105514806262</v>
+        <v>334.8509518076723</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>368.5363421894914</v>
+        <v>309.5115286790144</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>314.3084263473294</v>
+        <v>302.7856725952613</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>407.5594521793011</v>
+        <v>379.8133867428392</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>238.7651631158695</v>
+        <v>238.8149809015569</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>296.6483794586874</v>
+        <v>319.9916812410237</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>364.4432053395924</v>
+        <v>307.386912200949</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>997.8954109269638</v>
+        <v>934.3470177832774</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>361.1594291158687</v>
+        <v>329.5474182174291</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>287.2162748055437</v>
+        <v>313.3254303223014</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>504.1524351798963</v>
+        <v>446.0230843461518</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>650.1026190273243</v>
+        <v>539.1396591735298</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>109.6477033407987</v>
+        <v>115.1631263514505</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>548.2546901500581</v>
+        <v>694.8386947408632</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>300.2200440352836</v>
+        <v>302.2671555606682</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>447.4003805330433</v>
+        <v>452.0827249440802</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>698.8603257978</v>
+        <v>706.0501637855015</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>314.7822274867773</v>
+        <v>316.5416549188102</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>261.9817544397932</v>
+        <v>259.495853531417</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>927.0809600145848</v>
+        <v>899.1569168873958</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>531.8229343766959</v>
+        <v>578.575671401897</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>154.3981661294178</v>
+        <v>150.0049723858597</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>216.758837060362</v>
+        <v>210.3256688398094</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>418.8004809256498</v>
+        <v>502.3353489551214</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>713.956084014181</v>
+        <v>741.0981212982819</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>461.7600325115316</v>
+        <v>503.7069542406294</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>443.4114382538712</v>
+        <v>472.34617439529</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>216.8190312571983</v>
+        <v>256.764295291183</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>428.9865700227165</v>
+        <v>435.9167547069009</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1357.295208593837</v>
+        <v>1382.425858780022</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>666.9522080304793</v>
+        <v>699.6732885775488</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>737.6576066355192</v>
+        <v>884.6408213140379</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>344.1226718708534</v>
+        <v>507.433262776045</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>240.4024805150026</v>
+        <v>248.0449936037817</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>660.997813750209</v>
+        <v>622.5160111934352</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>408.2678543639818</v>
+        <v>403.4993834526921</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>248.9673390327109</v>
+        <v>232.4541150893839</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>499.8651246775643</v>
+        <v>504.9867635632428</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>620.0593421814232</v>
+        <v>620.8620128366261</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>284.2942298014622</v>
+        <v>294.5421427653627</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>345.3049432449232</v>
+        <v>362.3588387789093</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>351.0812132241587</v>
+        <v>386.0173912411106</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>421.2133853262202</v>
+        <v>422.6619071939469</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>274.3013784343443</v>
+        <v>293.2763058037362</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>928.0817667323244</v>
+        <v>827.4764941952531</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>404.5608441101708</v>
+        <v>389.9383055711627</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>308.253322193924</v>
+        <v>314.9448447687616</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>671.165806203237</v>
+        <v>558.3497459697144</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>425.8911441064368</v>
+        <v>428.5360174638394</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>567.4616307532355</v>
+        <v>592.2233813608379</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>1401.30718029294</v>
+        <v>1483.044222753261</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>210.4139008147425</v>
+        <v>211.9145747153458</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>391.3573379517769</v>
+        <v>381.1754686001082</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>250.1387783339823</v>
+        <v>266.8749389961698</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>250.7299873073601</v>
+        <v>219.1734136554489</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>1823.588592396484</v>
+        <v>1864.527191430072</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>983.3268175011789</v>
+        <v>889.2817829562633</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>171.5069634174465</v>
+        <v>174.4795847275693</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>448.2182816480634</v>
+        <v>428.9437515122276</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>316.405883278868</v>
+        <v>329.1774690930771</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>386.7985582332761</v>
+        <v>378.7518798817651</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>137.3877398690485</v>
+        <v>130.8437866404063</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>402.8718131967056</v>
+        <v>412.7561800461914</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>270.8640836053242</v>
+        <v>269.8562693677599</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>326.2344575844609</v>
+        <v>341.6655986838051</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>1020.585512085587</v>
+        <v>847.1509365020814</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>399.0651739425247</v>
+        <v>370.8177385113675</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>385.5055712053253</v>
+        <v>368.9165117597103</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>328.6721497004796</v>
+        <v>358.5788644445736</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>240.622483573222</v>
+        <v>284.5533557597466</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>936.237886076322</v>
+        <v>883.8025246392143</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>215.6242372993974</v>
+        <v>240.5017004353031</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>397.6930382209313</v>
+        <v>394.7405047103311</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>330.263901791855</v>
+        <v>313.8045686750896</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>282.6235177201521</v>
+        <v>248.3040617760716</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>282.0204791684209</v>
+        <v>233.637747117793</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>257.2520509600816</v>
+        <v>264.6109520630837</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>211.7140713799392</v>
+        <v>211.5745910778947</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>277.316244246513</v>
+        <v>265.1945437282083</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>288.5212578867149</v>
+        <v>265.7476666642343</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>352.1404185904037</v>
+        <v>362.9809708665333</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>940.5112369949635</v>
+        <v>1198.692409328041</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>349.4602081559427</v>
+        <v>334.2482021008782</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>466.4275812918723</v>
+        <v>439.784478871471</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>418.2727355476288</v>
+        <v>426.6219819435171</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>1421.07449185398</v>
+        <v>1386.524764007141</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>289.3356756326643</v>
+        <v>266.4555856998869</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>226.8586962459113</v>
+        <v>250.5662329143685</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>647.8041530318492</v>
+        <v>649.1993395890839</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>709.4352180721094</v>
+        <v>750.6234271425085</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>503.7535124530497</v>
+        <v>529.1495105992536</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>452.0063128047499</v>
+        <v>448.7858805420475</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>541.185708248398</v>
+        <v>644.5383866586091</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>653.8816303270364</v>
+        <v>635.019226339714</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>822.0747984112251</v>
+        <v>833.4393969225574</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>313.5273441029854</v>
+        <v>344.0936709841091</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>468.142670432036</v>
+        <v>515.8690107443902</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>308.824129528932</v>
+        <v>331.7546556278148</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>699.7217494486672</v>
+        <v>577.7366335362226</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>414.266868995931</v>
+        <v>439.2858075807636</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>507.3056394757897</v>
+        <v>503.1636367723176</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>277.0189415315727</v>
+        <v>283.0423544858892</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>276.696072987134</v>
+        <v>279.3429247654695</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>406.9259422228953</v>
+        <v>404.1474676013783</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>300.6819044593495</v>
+        <v>287.2060613876329</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>770.3583126606671</v>
+        <v>843.0836611248108</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>403.3072710013391</v>
+        <v>401.6689740936814</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>1025.931269963579</v>
+        <v>1154.547641646632</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>190.8195993006609</v>
+        <v>205.368804964102</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>677.9018167862636</v>
+        <v>558.6567350863529</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>690.6322206586802</v>
+        <v>742.189001480412</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>219.1021301612321</v>
+        <v>258.2414061811351</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>827.0650394491429</v>
+        <v>985.5054401803094</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>571.6333890680625</v>
+        <v>514.4175971269045</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>899.8135528628736</v>
+        <v>871.7340015411417</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>616.4730752845749</v>
+        <v>598.4631103884124</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>644.4620040020744</v>
+        <v>643.6687871241344</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>743.9078700213284</v>
+        <v>718.0913575929563</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>296.4284402004062</v>
+        <v>353.3462010947323</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>1091.317049592195</v>
+        <v>952.3340065318175</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>334.4002960886398</v>
+        <v>326.8229749345907</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>312.8965423910813</v>
+        <v>323.2717962246591</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>435.5195410018461</v>
+        <v>431.5961408694641</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>691.8528792134266</v>
+        <v>747.4597150535741</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>283.64314229232</v>
+        <v>266.313747803974</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>282.7354987809027</v>
+        <v>296.84007966759</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>710.7231846789194</v>
+        <v>700.9399481958077</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>309.5771573795551</v>
+        <v>306.4029349366906</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>377.5350438610848</v>
+        <v>358.4219304338504</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>316.7277187913556</v>
+        <v>309.7756917602895</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>428.8972698623279</v>
+        <v>436.2604974879012</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>588.9193764413046</v>
+        <v>576.7510489953893</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>352.0602503457394</v>
+        <v>385.3985230501382</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>944.4204063979291</v>
+        <v>1060.845870199609</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>439.9100531375831</v>
+        <v>424.5428073379144</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>334.5433399703919</v>
+        <v>385.9981822710403</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>1019.066431864271</v>
+        <v>1047.60599247524</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>277.548743891516</v>
+        <v>276.1253989467094</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>255.8568212190496</v>
+        <v>274.0119726359004</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>93.62015667928365</v>
+        <v>97.73015503817724</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>505.2367620775454</v>
+        <v>578.594639085044</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>333.8824337484514</v>
+        <v>332.0334076564295</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>421.8680377565231</v>
+        <v>420.4432793257387</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>816.9925597580914</v>
+        <v>809.8726071526461</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>259.5952438575022</v>
+        <v>265.9799610858751</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>370.9524253142749</v>
+        <v>374.7822420261447</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>238.280907287938</v>
+        <v>242.2528705753149</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>291.9806539549755</v>
+        <v>270.6061358997727</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>704.2704076624419</v>
+        <v>631.8819143771124</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>272.3768292855733</v>
+        <v>312.0353510926468</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>355.9427932972696</v>
+        <v>336.8473143964684</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>334.8229085418794</v>
+        <v>289.4167793011877</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>409.0016944679668</v>
+        <v>402.0213506728688</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>165.888900897054</v>
+        <v>171.2386854443557</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>285.1209671729434</v>
+        <v>291.5531248923201</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>610.6092309461307</v>
+        <v>545.5471589582512</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>377.608222905681</v>
+        <v>482.8686458291969</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>311.3780907743684</v>
+        <v>259.3383342992164</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>366.8169795775028</v>
+        <v>343.5744458001436</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>204.2061627532681</v>
+        <v>197.3922892857702</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>266.7961992944558</v>
+        <v>258.979619386763</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>926.2909726563381</v>
+        <v>1112.698572272644</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>324.0661536373422</v>
+        <v>315.3858730390143</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>619.5981764741833</v>
+        <v>762.9081237373634</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>550.9333240085116</v>
+        <v>497.0294815074267</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>519.6459689558166</v>
+        <v>566.3212094774885</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>336.526721660673</v>
+        <v>314.1950165966647</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>439.8179288175257</v>
+        <v>377.4075875304057</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>185.1860011772155</v>
+        <v>196.5161192804731</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>272.5103946466566</v>
+        <v>311.5356593038483</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>310.8441261850505</v>
+        <v>314.4360835603098</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>414.9061599469503</v>
+        <v>424.3124643012118</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>307.3998545605677</v>
+        <v>347.3551939666513</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>1174.627177154891</v>
+        <v>1028.726350630191</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>321.6513957260844</v>
+        <v>315.6232863022808</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>228.8731901809718</v>
+        <v>240.1253348393086</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>413.7923650668129</v>
+        <v>413.8868263931059</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>435.6624315868343</v>
+        <v>444.937853149435</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>635.1746564572522</v>
+        <v>706.6181559983227</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>644.9990997749607</v>
+        <v>718.3017370926966</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>155.560719512653</v>
+        <v>153.1675747928603</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>440.1087942574193</v>
+        <v>471.0138419590662</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>505.2499756513689</v>
+        <v>551.9886791945989</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>545.068758410602</v>
+        <v>602.6774886136303</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>435.3464838599287</v>
+        <v>460.3551813958454</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>125.8663452066302</v>
+        <v>126.7728172287958</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>443.6357247620234</v>
+        <v>474.1755498037368</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>378.7294119231408</v>
+        <v>394.4727139545992</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>459.1165029682833</v>
+        <v>427.7552319568959</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>845.5168304762346</v>
+        <v>889.5179237456088</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>684.632246930459</v>
+        <v>645.3832894983535</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>265.1622033786144</v>
+        <v>296.8626449458504</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>919.8235314112013</v>
+        <v>893.9144230593737</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>415.6663997035837</v>
+        <v>381.7455847449281</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>417.4872222594695</v>
+        <v>370.0750217964897</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>230.3856666030136</v>
+        <v>222.4489660424155</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>962.634033610341</v>
+        <v>855.9422382753474</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>572.8724529212292</v>
+        <v>499.218119811296</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>567.0304439662007</v>
+        <v>674.8829805486345</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>282.6326288233681</v>
+        <v>260.165437968593</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>409.8669713121653</v>
+        <v>343.6830612748256</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>269.2362330569362</v>
+        <v>341.697985134374</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>269.8134030779992</v>
+        <v>279.2037725318306</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>250.6956843179937</v>
+        <v>248.2209379699119</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>438.7035042022562</v>
+        <v>400.5985552002933</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>178.4160419727005</v>
+        <v>175.0159678055325</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>233.9941028544627</v>
+        <v>248.9865415006433</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>310.3219201513953</v>
+        <v>330.8059495506897</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>693.3280366797327</v>
+        <v>669.4559463843351</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>153.9909300646061</v>
+        <v>149.9134159734771</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>408.6173440297943</v>
+        <v>429.9023598283993</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>267.524589119899</v>
+        <v>289.4462136903484</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>268.7477628887594</v>
+        <v>232.3895190584522</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>1647.613187962426</v>
+        <v>1752.103468455909</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>380.795450665294</v>
+        <v>314.3415314140341</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>438.5771131734483</v>
+        <v>474.6033011032261</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>357.8848098310096</v>
+        <v>333.2912061762565</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>272.3377152896682</v>
+        <v>266.6296495587558</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>242.8506783305615</v>
+        <v>252.5014418977412</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>573.216557109131</v>
+        <v>532.6221725569419</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>455.695511456432</v>
+        <v>440.1220385224818</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>362.4188602433666</v>
+        <v>389.6352968706429</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>250.5695320300428</v>
+        <v>255.2989345194545</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>327.1557589771747</v>
+        <v>330.1047533404082</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>370.4548955590657</v>
+        <v>388.3721034904391</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>376.7538722890461</v>
+        <v>355.7947915055025</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>123.361302270896</v>
+        <v>126.5252311524779</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>738.2901330458208</v>
+        <v>704.3381435345058</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>311.9940403758883</v>
+        <v>311.0169596950993</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>305.982062613876</v>
+        <v>308.5522801521186</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>421.4562968990728</v>
+        <v>392.4983363380915</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>819.9982279184187</v>
+        <v>815.23250880253</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>204.4389607916449</v>
+        <v>225.0150747294073</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>307.1948514466351</v>
+        <v>295.6514144362625</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>407.2869686275937</v>
+        <v>417.2104835186655</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>569.4956797557544</v>
+        <v>673.4895388527162</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>304.8187466679365</v>
+        <v>277.484358083955</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>249.6910143475031</v>
+        <v>233.6631753383443</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>976.2237149244052</v>
+        <v>952.5463181324318</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>303.3703547905084</v>
+        <v>326.0264455539589</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>1022.442074300253</v>
+        <v>1068.108096744578</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>394.263141761373</v>
+        <v>406.8671399334063</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>508.1221359894885</v>
+        <v>566.5076592488721</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>238.8732853316069</v>
+        <v>200.7039811948665</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>383.8114601930692</v>
+        <v>465.8861659587312</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>196.9237696757913</v>
+        <v>202.1785279507129</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>440.5922775978393</v>
+        <v>420.322909551835</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>285.2301092182536</v>
+        <v>322.2889166068264</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>260.4580030106902</v>
+        <v>267.0602165767673</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>316.9852608002535</v>
+        <v>299.7763879349241</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>231.3341674860187</v>
+        <v>252.9058454679416</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>617.1328947525548</v>
+        <v>606.0286774297481</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>967.2965046092745</v>
+        <v>971.745705190431</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>274.2390481550352</v>
+        <v>275.5548545591624</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>169.6655221837793</v>
+        <v>214.1687043271989</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1025.110833459155</v>
+        <v>1024.426007438908</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>298.3304471014583</v>
+        <v>357.9212642151958</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>148.5110864967732</v>
+        <v>143.7188606818339</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>597.3748889981807</v>
+        <v>691.4147282522573</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>444.160176038564</v>
+        <v>458.4623829450856</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>1027.520152614113</v>
+        <v>1150.352661162167</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>590.9184525309828</v>
+        <v>602.8483936067341</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>805.4118690495584</v>
+        <v>944.0395585128942</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>313.1407568204175</v>
+        <v>293.3073299622828</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>243.6781931166472</v>
+        <v>264.1586525301277</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>363.4764399218731</v>
+        <v>368.6702936048015</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>1491.224190015503</v>
+        <v>1275.732019150835</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>538.4566873254022</v>
+        <v>498.3946312592108</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>950.9407372498804</v>
+        <v>825.9589902618167</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>225.6331577272072</v>
+        <v>256.6651759704852</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>455.3413345735565</v>
+        <v>463.6966698608929</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>266.2496659578109</v>
+        <v>278.2581480883805</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>439.0281551154589</v>
+        <v>456.7995333829086</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>299.9276217228837</v>
+        <v>302.579450340783</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>242.0710289829573</v>
+        <v>228.2048270968217</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>370.4124488591695</v>
+        <v>259.2856864223908</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>173.3385542841409</v>
+        <v>172.0187527875247</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>1393.179257898183</v>
+        <v>1346.880834515867</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>429.3858979184529</v>
+        <v>407.2939737995746</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>383.6574196206556</v>
+        <v>441.3037187350106</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>355.7392599326637</v>
+        <v>357.9961254389914</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>389.3927427425325</v>
+        <v>318.0348502605866</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>184.8886635074975</v>
+        <v>193.5870192069717</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>269.4862839520351</v>
+        <v>275.6226894349152</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>469.8892022104393</v>
+        <v>497.3105064241158</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>878.3367435815244</v>
+        <v>1034.620475698279</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>325.6041278019337</v>
+        <v>310.013552018478</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>327.8527887617066</v>
+        <v>318.1658209867471</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>321.1111047630124</v>
+        <v>320.218415047729</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>333.1056138853873</v>
+        <v>333.5534622523208</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>321.5944836624023</v>
+        <v>329.462588091229</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>315.6944229485579</v>
+        <v>316.7740836408562</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>311.6868203917428</v>
+        <v>328.7341419379913</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>561.2949228575376</v>
+        <v>492.1061195648693</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>408.814513790581</v>
+        <v>401.5877842627619</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>493.2412550355974</v>
+        <v>556.0390698495381</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>266.1694765347442</v>
+        <v>246.8193225522797</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>490.1754514944809</v>
+        <v>440.3695067293544</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>125.1169202968572</v>
+        <v>119.1989960822989</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>328.0119891173662</v>
+        <v>371.209078161107</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>549.3651872488534</v>
+        <v>530.8191332902833</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>660.8563464647455</v>
+        <v>528.6743639797155</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>439.9904946190662</v>
+        <v>469.3286638671747</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>229.5262385710462</v>
+        <v>215.8810434372121</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>1124.38518987274</v>
+        <v>1108.113239206904</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>577.3922111082022</v>
+        <v>705.2003664091884</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>374.4567228833812</v>
+        <v>366.16122734728</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>329.1261173329699</v>
+        <v>340.5456986592274</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>309.1457856748307</v>
+        <v>299.0189560473033</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>224.0082189452351</v>
+        <v>217.5669550484163</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>220.7162229831252</v>
+        <v>224.5357745922494</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>355.4051350327909</v>
+        <v>361.7610847577915</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>483.6310543454311</v>
+        <v>673.2495967372286</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>371.7202354330202</v>
+        <v>386.4443504855388</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>296.7639385611595</v>
+        <v>336.2211780600418</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>491.5612669774235</v>
+        <v>509.155495472789</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>490.6914677609233</v>
+        <v>609.4072437051091</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>424.6147387653531</v>
+        <v>432.0248610011231</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>726.5380370338776</v>
+        <v>638.1451354071929</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>293.5354515737927</v>
+        <v>285.0317067051087</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>422.5016522037262</v>
+        <v>414.8216817527327</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>268.441797345366</v>
+        <v>275.4644230051811</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>316.6396135316321</v>
+        <v>328.8511330723099</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>490.8023877140365</v>
+        <v>496.7546428264917</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>437.3068374545159</v>
+        <v>417.9720118196659</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>345.751147581407</v>
+        <v>342.34562671843</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>315.2460792491007</v>
+        <v>305.7409646414833</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>329.3880287973149</v>
+        <v>314.5540607419825</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>569.4260470318709</v>
+        <v>675.2482176570724</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>318.3118739248166</v>
+        <v>324.5581179104145</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>396.3643218352398</v>
+        <v>414.9389619469216</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>418.9224199351054</v>
+        <v>418.8377334955127</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>274.2093528949358</v>
+        <v>278.4954967515204</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>517.1127067578127</v>
+        <v>522.1013603087778</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>231.3945949564994</v>
+        <v>246.2651949546218</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>2154.699855208185</v>
+        <v>2135.82770628692</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>488.9152669220243</v>
+        <v>476.0669371748991</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>246.5740311301002</v>
+        <v>248.7445220892916</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>375.1611839518196</v>
+        <v>376.3076833172657</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>399.4092941454686</v>
+        <v>399.4992858466689</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>313.8971789377389</v>
+        <v>364.3825922360568</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>625.7753624484361</v>
+        <v>703.0818541987247</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>253.8824949134566</v>
+        <v>276.4977606749476</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>390.2839940124503</v>
+        <v>343.8247106020073</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>278.7532243196217</v>
+        <v>277.3874846753029</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>67.5646060525231</v>
+        <v>69.30289009595478</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>330.6742453830281</v>
+        <v>316.9754602565838</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>345.0306964115036</v>
+        <v>340.3322414638394</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>354.4486563269331</v>
+        <v>383.3067068581227</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>495.1653317866115</v>
+        <v>494.8421602190651</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>885.4358876864729</v>
+        <v>910.01421619599</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>351.5036752936062</v>
+        <v>403.0392931675787</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>334.9409210272045</v>
+        <v>341.1122831427208</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>303.185341519703</v>
+        <v>287.2011418357704</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>619.8713078433128</v>
+        <v>576.8939659432206</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>446.5706080752448</v>
+        <v>500.3315904381332</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>568.5936110492944</v>
+        <v>530.1802046738396</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>233.4826146678697</v>
+        <v>235.7384088705542</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>94.48803644345233</v>
+        <v>116.5988522162116</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>255.3665617900597</v>
+        <v>267.352321309864</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>688.2786406015352</v>
+        <v>774.8605309248363</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>239.3074299758126</v>
+        <v>251.6735807070457</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>311.2929785492248</v>
+        <v>314.1440261258571</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>247.9569895281748</v>
+        <v>285.7150059935489</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>406.5686200728942</v>
+        <v>309.4086711043433</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>274.0913128452891</v>
+        <v>273.3744948527547</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>263.9058701356618</v>
+        <v>261.3552615169778</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>388.4180171399409</v>
+        <v>354.6031719989882</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>392.2363632035627</v>
+        <v>341.9394804122356</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>393.6560203492534</v>
+        <v>310.2451854639615</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>577.3427861077939</v>
+        <v>609.4752204073685</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>791.5478919628305</v>
+        <v>770.7263095065035</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>266.9989818681653</v>
+        <v>278.8948697445128</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>397.7007308859998</v>
+        <v>419.7260384268694</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>301.5157486981647</v>
+        <v>319.1752377960964</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>278.658093763701</v>
+        <v>264.0038765907387</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>604.8595748257159</v>
+        <v>544.4819077502091</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>292.5532466356269</v>
+        <v>310.7335907674469</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>1155.86452711194</v>
+        <v>1195.431756348147</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>350.5054588939577</v>
+        <v>362.5553418651507</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>194.6984511771857</v>
+        <v>194.5056511389546</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>262.3982435296904</v>
+        <v>272.183191561036</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>508.1393800787281</v>
+        <v>594.7532862618575</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>731.0408091615118</v>
+        <v>706.3110528816586</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>456.0352969562824</v>
+        <v>365.6722263131802</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>296.9522247402697</v>
+        <v>310.2026574472807</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>235.8676816155604</v>
+        <v>236.9058747121593</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>386.0214879511454</v>
+        <v>344.9270119446728</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>568.4115245357876</v>
+        <v>617.4800593888881</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>417.1929747207274</v>
+        <v>353.6147295327093</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>482.3409305816967</v>
+        <v>515.1884311476143</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>351.9343995565903</v>
+        <v>362.5879933452733</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>129.7046319674069</v>
+        <v>130.5112816615174</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>240.3154486372526</v>
+        <v>268.3352990755008</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>488.6078621036442</v>
+        <v>450.3096412449622</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>428.3190612522311</v>
+        <v>455.3734944402406</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>385.9559198678537</v>
+        <v>404.0516257573743</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>682.1648217801611</v>
+        <v>616.438838499196</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>570.5760565172922</v>
+        <v>570.3800906928313</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>506.1518145983744</v>
+        <v>600.7734411468924</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>287.9664412113676</v>
+        <v>268.7444618552238</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>450.4426877256616</v>
+        <v>412.3591241290729</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>214.4815235058593</v>
+        <v>204.8886358588776</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>482.6521869390282</v>
+        <v>480.8087852463701</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>429.8166906062729</v>
+        <v>504.6831918773051</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1251.561205749646</v>
+        <v>1258.481836513128</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>271.4714797208081</v>
+        <v>263.7349661395886</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>479.5588767382795</v>
+        <v>467.9986635378389</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>376.3369626079493</v>
+        <v>353.0867702984569</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>402.1962910504232</v>
+        <v>410.0631758106674</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>451.7293128406943</v>
+        <v>448.2820396098667</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>1266.600893752291</v>
+        <v>1174.269154320429</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>493.1161100337486</v>
+        <v>458.0070398125765</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>264.1384601699219</v>
+        <v>276.3069104968534</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>583.7086161171005</v>
+        <v>586.9610709948315</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>566.447569587638</v>
+        <v>567.1153998055134</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>442.2817064330596</v>
+        <v>455.1073723632301</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>377.9637063248402</v>
+        <v>441.9337361795372</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>1100.674633250226</v>
+        <v>1388.378873333882</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>493.3497229994376</v>
+        <v>539.6265087984983</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>394.1055842016314</v>
+        <v>378.4253466637007</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>691.0591627250176</v>
+        <v>829.3374571392304</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>580.8887660152286</v>
+        <v>592.2084813879071</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1162.510461327448</v>
+        <v>1338.889775365365</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>753.4376269451242</v>
+        <v>771.1412366533725</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>397.3710791875463</v>
+        <v>392.5605593700794</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>389.3884829003624</v>
+        <v>506.9198284271288</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>408.6777472535962</v>
+        <v>414.5469045941397</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>1065.25359043208</v>
+        <v>1070.389565540862</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>596.9157310613826</v>
+        <v>610.4021602417414</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>376.2146504428033</v>
+        <v>449.2829586531487</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>350.1677369768325</v>
+        <v>355.8223646076063</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>433.6059674478677</v>
+        <v>425.9829803645279</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>264.7852966217883</v>
+        <v>246.1717044718631</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>506.1791730586773</v>
+        <v>552.072582044479</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>418.0094133930937</v>
+        <v>347.5905145840298</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>1011.081976823534</v>
+        <v>984.4522886575983</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>364.3072213127558</v>
+        <v>359.8238061549061</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>973.4267280817915</v>
+        <v>943.4456143935007</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>499.9979002895596</v>
+        <v>513.7890320071306</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>165.7018447342557</v>
+        <v>180.5697831342786</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>367.9423254529538</v>
+        <v>375.5090711184886</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>212.7280408697387</v>
+        <v>277.024333280076</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>248.889915293895</v>
+        <v>214.4723831959643</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>494.2629521624974</v>
+        <v>497.8404857861918</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>174.8864528571463</v>
+        <v>145.8135082740864</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>250.1367483280365</v>
+        <v>239.4763187217864</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>496.7564174198105</v>
+        <v>469.2015212451877</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>394.762623310575</v>
+        <v>442.7781620637327</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>348.545639186343</v>
+        <v>319.3745526370592</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>357.2017276199507</v>
+        <v>380.8042971408582</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>413.4667341814839</v>
+        <v>422.652503936581</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>745.1554901011028</v>
+        <v>648.245455495265</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>559.6865350239864</v>
+        <v>570.4517198888018</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>570.3561410878691</v>
+        <v>465.1211391675295</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>370.9702041799733</v>
+        <v>388.3779815638173</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>580.1455897647199</v>
+        <v>558.6491072018919</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>1000.285543744317</v>
+        <v>853.0848838744531</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>1042.523707209279</v>
+        <v>952.972430649169</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>3531.100506044995</v>
+        <v>3336.162374505256</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>198.5379110012117</v>
+        <v>199.1478882055</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>440.465778002144</v>
+        <v>416.4681857258595</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>564.3541869630889</v>
+        <v>590.7460523302091</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>432.6677567366772</v>
+        <v>451.7481731876658</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>200.6521667923505</v>
+        <v>222.3874638155134</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>947.2934028162115</v>
+        <v>1005.421576545668</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>678.1710621911575</v>
+        <v>654.2748250448099</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>181.0603793155229</v>
+        <v>184.7266022831644</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>269.5082193946834</v>
+        <v>240.4797838815548</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>1352.397429542369</v>
+        <v>1279.824442885329</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>819.5839917234865</v>
+        <v>860.2777649189954</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>205.3286676477317</v>
+        <v>212.4347630840174</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>575.0132493737893</v>
+        <v>617.0303334067986</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>615.3158191426561</v>
+        <v>654.3867353130645</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>374.3836955287296</v>
+        <v>346.3667345999327</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>459.1758735328032</v>
+        <v>448.2370017358474</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>475.7598218465466</v>
+        <v>501.1026854314476</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>768.4503318181819</v>
+        <v>773.6468125977322</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>223.7214079065993</v>
+        <v>204.6412719548533</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>331.4031870074069</v>
+        <v>385.6084450233956</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>285.7708907053639</v>
+        <v>296.3462036951044</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>494.941993722871</v>
+        <v>457.2794434737337</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>347.5996660870911</v>
+        <v>298.178293038392</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>673.8660793519994</v>
+        <v>704.7498066130531</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>533.6520117199358</v>
+        <v>597.954858456417</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>293.0056857482062</v>
+        <v>257.259694417882</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>594.1112858716472</v>
+        <v>629.1806194020038</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>377.3148049205994</v>
+        <v>364.391164492255</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>403.9239595302068</v>
+        <v>358.3495733665633</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>790.1721711748568</v>
+        <v>808.4018142610925</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>323.3341594863713</v>
+        <v>332.3617840616731</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>625.1516494759941</v>
+        <v>497.4080329713694</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>147.8313218644726</v>
+        <v>137.1376915487154</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>586.2785486953219</v>
+        <v>669.4218332164181</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>141.1015922976541</v>
+        <v>144.9267492046915</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>263.6010545015147</v>
+        <v>299.8744356068439</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>151.8486575742929</v>
+        <v>153.5094908551584</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>364.199562776604</v>
+        <v>384.4121803427915</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>605.7554619723306</v>
+        <v>694.198112993579</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>326.0863381166496</v>
+        <v>299.4022834441209</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>444.9040748203612</v>
+        <v>481.9349460887199</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>385.8360484194832</v>
+        <v>388.6851412313757</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>285.3727747372056</v>
+        <v>359.0853928059336</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>203.8225649684161</v>
+        <v>218.1138270336485</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>354.2709252992223</v>
+        <v>421.554734861629</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>245.3464022895407</v>
+        <v>259.1535231203083</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>164.8503627041297</v>
+        <v>159.975923432443</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>256.6731557578232</v>
+        <v>257.3749149700525</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>558.3222278401204</v>
+        <v>509.9727720279888</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>157.5541182433934</v>
+        <v>158.7204555258392</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>267.5481542625492</v>
+        <v>292.8110458563106</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>269.0331737301326</v>
+        <v>264.6323248724156</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>416.5505692387288</v>
+        <v>474.8706617528197</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>251.4635978539329</v>
+        <v>283.9671600151788</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>158.2324509352864</v>
+        <v>157.8284853253955</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>841.9919746875111</v>
+        <v>778.1556626554388</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>610.0978982494464</v>
+        <v>609.7787095480558</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>579.6021119014968</v>
+        <v>564.0438539221791</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>477.4613045643221</v>
+        <v>623.3289262979503</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>372.5285720067154</v>
+        <v>376.1310314548254</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>564.6668623946483</v>
+        <v>657.6802049962388</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>242.4651026715422</v>
+        <v>258.1425212970736</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>337.6013958615475</v>
+        <v>313.5765505639336</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>464.3845513015312</v>
+        <v>478.5106836056366</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>646.8750390802517</v>
+        <v>576.7000434130746</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>298.9111439847578</v>
+        <v>281.9888274715986</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>607.4470346955198</v>
+        <v>602.7888086038366</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>946.6337470003689</v>
+        <v>866.9155218908525</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>418.4130288647797</v>
+        <v>408.3653953315217</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>218.121175495662</v>
+        <v>218.6514758456708</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>275.372592256993</v>
+        <v>273.3036618234192</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>335.933578563783</v>
+        <v>313.6248654827686</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>400.2315110476837</v>
+        <v>514.9763809718023</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>259.5042742797334</v>
+        <v>247.4841534676459</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>474.6474246772066</v>
+        <v>407.2362318830943</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>368.750807093132</v>
+        <v>387.2401811918618</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>88.89466483488003</v>
+        <v>94.22346444128101</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>290.2464502481982</v>
+        <v>285.0739085071393</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>405.0651110917871</v>
+        <v>417.7781976777432</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>295.8665420037757</v>
+        <v>358.5989964739179</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>976.0761418340045</v>
+        <v>961.2520509607574</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>398.2910045330224</v>
+        <v>458.4494968649746</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>463.4014410708862</v>
+        <v>576.515805871367</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>880.43358813343</v>
+        <v>1296.153103157368</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>249.0237472556801</v>
+        <v>262.0914949231659</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>471.971623111581</v>
+        <v>525.4118269639769</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>618.7152858503894</v>
+        <v>583.4580869017047</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>440.4683727137235</v>
+        <v>454.0440146748988</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>442.0228901000587</v>
+        <v>451.3588464540338</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>557.9461044891923</v>
+        <v>569.7183229459976</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>329.0105833088773</v>
+        <v>315.2330666443563</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>537.6247372718373</v>
+        <v>511.2741684094007</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>634.0842561952469</v>
+        <v>640.2512020918108</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>690.2861327820838</v>
+        <v>661.7577701829825</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>441.1267703527442</v>
+        <v>440.4914827703475</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>240.7219038574356</v>
+        <v>201.8787910504599</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>471.2008709477177</v>
+        <v>515.3816678702165</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>388.2614050646145</v>
+        <v>403.3546708291155</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>202.4818625663479</v>
+        <v>188.9986732555352</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>205.3534406310902</v>
+        <v>170.5181406785781</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>309.7490230273871</v>
+        <v>280.2954019998447</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>451.146386419654</v>
+        <v>411.2758279021094</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>544.3790400833582</v>
+        <v>586.9576342495333</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>229.4288460363209</v>
+        <v>234.0450281381566</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>406.9982810133003</v>
+        <v>383.5279458754374</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>441.6597149419031</v>
+        <v>390.4164981850351</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>181.3600809593862</v>
+        <v>187.1396559202293</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>501.203767342919</v>
+        <v>470.2406345757556</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>293.4961827861551</v>
+        <v>239.8793781049623</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>493.1518662038575</v>
+        <v>427.0532671199757</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>448.9122940234258</v>
+        <v>517.4170206846653</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>391.2779196869311</v>
+        <v>379.5742507468192</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>321.2143101640015</v>
+        <v>354.0892483742972</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>605.9915787931533</v>
+        <v>655.7060694690958</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>128.0288234351696</v>
+        <v>96.98147977487952</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>688.4244241756588</v>
+        <v>592.3464012018464</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>834.3801989106146</v>
+        <v>957.2820619751102</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>277.7027825257463</v>
+        <v>290.4091261502324</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>226.0189999176674</v>
+        <v>213.9462231308899</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>418.411731855093</v>
+        <v>409.9144879841449</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>121.4576946901636</v>
+        <v>132.919428659871</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>609.8666137899337</v>
+        <v>524.1938492255616</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>358.9991700566409</v>
+        <v>412.2657757139269</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>289.1409558822519</v>
+        <v>318.2301278413951</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>379.9341729205519</v>
+        <v>386.9650398990306</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>315.1935543105044</v>
+        <v>363.1395630352467</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>314.5163168995118</v>
+        <v>360.7296279544688</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>561.8017770582958</v>
+        <v>534.0792883583601</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>322.5020970825761</v>
+        <v>364.5020678827426</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>401.5367319712749</v>
+        <v>350.20786652622</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>401.3916382868503</v>
+        <v>350.9103449441033</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>630.7509855458316</v>
+        <v>655.5259112486804</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>823.0222452072097</v>
+        <v>684.9932917967452</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>324.0312563297132</v>
+        <v>332.8963070471073</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>526.7840878820886</v>
+        <v>520.2860511416939</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>389.7117504400316</v>
+        <v>345.5696285686537</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>587.7419007684906</v>
+        <v>440.8149773980431</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>559.0455848153417</v>
+        <v>554.052712331347</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>685.5456588687463</v>
+        <v>717.6961284447326</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>418.7906557122178</v>
+        <v>392.2960572534752</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1000.255493519632</v>
+        <v>1112.339526859994</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>285.317807521915</v>
+        <v>293.5677097738105</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>233.9978627133691</v>
+        <v>241.3482295232511</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>315.1585249816744</v>
+        <v>322.0464441403509</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>406.4904047950991</v>
+        <v>346.6473378301571</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>260.6922194757943</v>
+        <v>233.9896547751165</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>525.9925810807417</v>
+        <v>518.9672950522727</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>716.1188954525586</v>
+        <v>693.7737685829721</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>426.3274585208453</v>
+        <v>470.1983275179613</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>233.3838184552658</v>
+        <v>231.2704830490605</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>414.8004503834084</v>
+        <v>426.511665001314</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>297.6227534009052</v>
+        <v>277.3154848766816</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>315.4722131636315</v>
+        <v>346.8665241651203</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>537.0302399297191</v>
+        <v>444.8908634752305</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>220.0260324207655</v>
+        <v>235.5080504858777</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>587.0264536599103</v>
+        <v>545.822924966148</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>677.3750285604555</v>
+        <v>676.8686961782589</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>460.215425812613</v>
+        <v>434.8974472548892</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>447.3554372098371</v>
+        <v>397.090021825989</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>445.4837485350467</v>
+        <v>512.8466857401481</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1652.273169554755</v>
+        <v>1509.324896348176</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>364.8467477352769</v>
+        <v>455.8641069255746</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>224.2708230762831</v>
+        <v>228.0451590817244</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>413.582215132554</v>
+        <v>462.0435992959597</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>143.1700789025454</v>
+        <v>150.6422237968048</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>295.7868942637972</v>
+        <v>338.907065959549</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>305.4283833058432</v>
+        <v>284.3569413349713</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>1009.227849461744</v>
+        <v>962.7936170557318</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>227.5078808723023</v>
+        <v>242.0247411516713</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>318.5263428760878</v>
+        <v>344.3681566373657</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>1005.40455984397</v>
+        <v>1066.480806980001</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>273.0537408806629</v>
+        <v>288.1717166830267</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>894.6082904783873</v>
+        <v>870.6646238614079</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>541.5890955563631</v>
+        <v>600.3712262760556</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>309.1575163651706</v>
+        <v>305.7797845042259</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>233.041786805454</v>
+        <v>264.5778127912195</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>140.7661304246271</v>
+        <v>157.9843503163781</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>381.3543098964653</v>
+        <v>409.1162911409183</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>785.5640573138957</v>
+        <v>817.2317114690229</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>306.1183388528705</v>
+        <v>288.4212790413629</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>372.1302688744719</v>
+        <v>397.3843790501376</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>244.6911656341417</v>
+        <v>249.4942610613922</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>1021.754262428134</v>
+        <v>1027.414736046011</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>222.5810909674637</v>
+        <v>224.31011276724</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>371.9500286887051</v>
+        <v>368.5975561093199</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>472.4711878886213</v>
+        <v>431.7172211237154</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>542.8188914763923</v>
+        <v>519.7658456320041</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>388.1043286995721</v>
+        <v>400.6634470770988</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>504.6456945410177</v>
+        <v>569.97141275414</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>307.9783465912241</v>
+        <v>331.0407891426395</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>353.1917577605084</v>
+        <v>350.3837428857641</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>292.3903446798574</v>
+        <v>323.3718296227937</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>314.4800420145538</v>
+        <v>328.7964806760548</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>376.019359486576</v>
+        <v>436.3649624258526</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>243.8398115369993</v>
+        <v>261.9114024499888</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>666.0949862068682</v>
+        <v>670.6589698451519</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>571.9873898889648</v>
+        <v>545.1705071966663</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>236.0668423872945</v>
+        <v>255.9706494549131</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>681.9119747467468</v>
+        <v>718.6836906293321</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>446.4369016220622</v>
+        <v>441.1199878323567</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>276.2666727842494</v>
+        <v>275.8671893729245</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>428.5647492271394</v>
+        <v>438.0617181135874</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>448.5079337861825</v>
+        <v>470.5231316789749</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>199.1408110476934</v>
+        <v>225.3104289467598</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>828.777728375823</v>
+        <v>797.3099083803035</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>356.4113124267431</v>
+        <v>361.5373540407428</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>531.4216755358602</v>
+        <v>552.1429863407644</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967">
-        <v>224.8973397192319</v>
+        <v>215.9872320850736</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968">
-        <v>337.5584335666847</v>
+        <v>420.743787377049</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969">
-        <v>396.537620297218</v>
+        <v>392.6988614293915</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>475.7262291562722</v>
+        <v>503.8088445857244</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971">
-        <v>554.2409937638221</v>
+        <v>621.3086739396412</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>507.5133898475801</v>
+        <v>551.3393887252784</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>565.2302997745059</v>
+        <v>440.5462317944729</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974">
-        <v>524.308376103573</v>
+        <v>513.4923451549305</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975">
-        <v>654.2719870792881</v>
+        <v>592.1502437548168</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>280.7433980960042</v>
+        <v>279.4836343635237</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977">
-        <v>385.7401049659725</v>
+        <v>336.254885051775</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978">
-        <v>399.7243167443273</v>
+        <v>407.8972472889016</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979">
-        <v>322.3874117980926</v>
+        <v>314.6833918825366</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980">
-        <v>763.0897955085931</v>
+        <v>755.00103332521</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>205.788665310907</v>
+        <v>186.8680885514577</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982">
-        <v>167.2433780777761</v>
+        <v>174.4587988166692</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983">
-        <v>580.2253259391628</v>
+        <v>544.8276294542276</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>88.62773883171579</v>
+        <v>89.54470152665635</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985">
-        <v>701.8944149580918</v>
+        <v>755.1307191296999</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986">
-        <v>531.9253153344428</v>
+        <v>535.177331676659</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987">
-        <v>341.0006194864849</v>
+        <v>297.8785280593373</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>537.1979932418469</v>
+        <v>469.0468813292894</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989">
-        <v>500.5880794178523</v>
+        <v>449.875206506362</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990">
-        <v>486.6106373380228</v>
+        <v>429.790265028266</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>412.9520560539024</v>
+        <v>405.3537870879967</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992">
-        <v>295.6699306387352</v>
+        <v>320.7083417096688</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993">
-        <v>494.0919344012548</v>
+        <v>473.5513926317489</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>514.0161961885891</v>
+        <v>596.8972591430653</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995">
-        <v>1569.137094543266</v>
+        <v>1389.770915983446</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>330.5539820364253</v>
+        <v>315.919692013005</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>1253.677030798061</v>
+        <v>1091.763919314023</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998">
-        <v>229.2618139988199</v>
+        <v>228.0053183482578</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999">
-        <v>302.7737985749258</v>
+        <v>305.8444065419254</v>
       </c>
     </row>
     <row r="1000" spans="1:1">
       <c r="A1000">
-        <v>152.5238609847509</v>
+        <v>156.8941635206038</v>
       </c>
     </row>
     <row r="1001" spans="1:1">
       <c r="A1001">
-        <v>310.1440636754689</v>
+        <v>316.8455387422532</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002">
-        <v>202.3609261758603</v>
+        <v>208.0312984540481</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003">
-        <v>237.7030717125487</v>
+        <v>260.7178733857551</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
       <c r="A1004">
-        <v>480.7697184296604</v>
+        <v>488.2216079477967</v>
       </c>
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>231.9885505909582</v>
+        <v>244.9502703255124</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
       <c r="A1006">
-        <v>346.3076064939665</v>
+        <v>348.7309303115785</v>
       </c>
     </row>
     <row r="1007" spans="1:1">
       <c r="A1007">
-        <v>525.0857450402941</v>
+        <v>552.2926702312775</v>
       </c>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008">
-        <v>493.6310278910107</v>
+        <v>472.55937014622</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
       <c r="A1009">
-        <v>336.3086554230482</v>
+        <v>376.4545886402903</v>
       </c>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010">
-        <v>437.0685022081515</v>
+        <v>480.9660110966667</v>
       </c>
     </row>
     <row r="1011" spans="1:1">
       <c r="A1011">
-        <v>675.4869995336129</v>
+        <v>678.2346437062649</v>
       </c>
     </row>
     <row r="1012" spans="1:1">
       <c r="A1012">
-        <v>516.2252507272079</v>
+        <v>516.5124062971014</v>
       </c>
     </row>
     <row r="1013" spans="1:1">
       <c r="A1013">
-        <v>949.4442804681144</v>
+        <v>1128.497296521644</v>
       </c>
     </row>
     <row r="1014" spans="1:1">
       <c r="A1014">
-        <v>494.4899428537513</v>
+        <v>497.4346172533583</v>
       </c>
     </row>
     <row r="1015" spans="1:1">
       <c r="A1015">
-        <v>285.1231649760174</v>
+        <v>264.3472630049897</v>
       </c>
     </row>
     <row r="1016" spans="1:1">
       <c r="A1016">
-        <v>277.5099250662844</v>
+        <v>263.9356055665579</v>
       </c>
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>520.0576262515303</v>
+        <v>422.2820797642108</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
       <c r="A1018">
-        <v>171.6425013907132</v>
+        <v>184.6755604711526</v>
       </c>
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>333.9433413629847</v>
+        <v>275.3539482393228</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
       <c r="A1020">
-        <v>228.5077564906029</v>
+        <v>226.6710564667146</v>
       </c>
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>301.6885137863914</v>
+        <v>288.8153618468775</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>329.0795130029861</v>
+        <v>300.4018122798884</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>262.3970638129663</v>
+        <v>258.2455140576778</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
       <c r="A1024">
-        <v>321.7075978932455</v>
+        <v>320.0076200183257</v>
       </c>
     </row>
     <row r="1025" spans="1:1">
       <c r="A1025">
-        <v>466.3886533927613</v>
+        <v>379.7834745145825</v>
       </c>
     </row>
     <row r="1026" spans="1:1">
       <c r="A1026">
-        <v>321.2801107640988</v>
+        <v>335.5703291375974</v>
       </c>
     </row>
     <row r="1027" spans="1:1">
       <c r="A1027">
-        <v>302.0627730558866</v>
+        <v>307.0219038481654</v>
       </c>
     </row>
     <row r="1028" spans="1:1">
       <c r="A1028">
-        <v>462.9606481988504</v>
+        <v>448.5425727306926</v>
       </c>
     </row>
     <row r="1029" spans="1:1">
       <c r="A1029">
-        <v>311.4007185640911</v>
+        <v>271.6326845379102</v>
       </c>
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>254.5433257312382</v>
+        <v>298.4938600483783</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>476.5177956013671</v>
+        <v>480.0130456043418</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>254.3898869637135</v>
+        <v>263.7568715021428</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>566.2268602342539</v>
+        <v>566.476095654634</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>332.4958644891997</v>
+        <v>318.6330217590175</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>252.9567968917777</v>
+        <v>253.5691080803323</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>308.3900828854735</v>
+        <v>283.1415366032249</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>521.028998374307</v>
+        <v>559.842468554286</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>464.0670903189211</v>
+        <v>432.9555340827106</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>76.6016375053202</v>
+        <v>78.46913635889707</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>344.0862137715285</v>
+        <v>299.1072125351691</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>283.0414671731929</v>
+        <v>293.1004016443851</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>167.741146495832</v>
+        <v>170.8154785844459</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>528.9932270628019</v>
+        <v>536.3437226019306</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>436.8433217330298</v>
+        <v>479.0448463440756</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>1012.342145966782</v>
+        <v>1076.42077883051</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>387.6031449315976</v>
+        <v>468.3605300235057</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>241.5899257193619</v>
+        <v>238.0687077034546</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>358.4249032246592</v>
+        <v>385.277133229305</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>350.7008768524892</v>
+        <v>345.4069076272232</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>507.8911479385045</v>
+        <v>510.0751123241578</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>264.0626315284878</v>
+        <v>264.812910670905</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>1041.563486924528</v>
+        <v>954.7278791165404</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>380.2154903407474</v>
+        <v>374.840023002173</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>2146.811941915949</v>
+        <v>2261.405403453194</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>352.9896216426537</v>
+        <v>393.7866637763076</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>706.2963321167668</v>
+        <v>600.0240499238597</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>384.3230231841226</v>
+        <v>385.9832769557049</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>1443.338931545243</v>
+        <v>1373.928658352033</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>261.4560973004943</v>
+        <v>252.0253477790941</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>670.3368337261007</v>
+        <v>638.6423721579389</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>280.908716574102</v>
+        <v>308.1362340522555</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>354.5143901093626</v>
+        <v>323.7942821150928</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>171.9555036396743</v>
+        <v>205.1582693624229</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>722.2195869917557</v>
+        <v>732.7372361878515</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>275.9982786600861</v>
+        <v>271.2368649268969</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>574.918581276248</v>
+        <v>754.1203430875418</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>556.6475761025016</v>
+        <v>498.0548468357353</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>271.2659793135948</v>
+        <v>277.2738515025248</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>320.6692448821006</v>
+        <v>350.7444986753314</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>409.2016168217681</v>
+        <v>409.0535458712743</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>332.8172371393945</v>
+        <v>375.2638404294444</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>443.9813013343185</v>
+        <v>399.9911895725209</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>287.0043173997487</v>
+        <v>298.7313574250318</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>351.4788056387234</v>
+        <v>354.0747173475866</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>281.6412848038682</v>
+        <v>278.5628219749305</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>433.5903180944026</v>
+        <v>447.947752734929</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>783.6179290113246</v>
+        <v>718.0083146376893</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>386.7366029384303</v>
+        <v>324.4319279198661</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>610.7493588875062</v>
+        <v>790.0827674107499</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>329.781299358658</v>
+        <v>310.3315486550734</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>277.7109746015656</v>
+        <v>311.7700852601588</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>518.8494317791923</v>
+        <v>551.9390206509822</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>315.3175551151138</v>
+        <v>364.6283922854631</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>448.1263707487639</v>
+        <v>409.8557424738197</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>218.1407553977246</v>
+        <v>204.6270630611791</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>474.888740342787</v>
+        <v>471.5768624284206</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>302.1354119179528</v>
+        <v>355.0473643842409</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>331.1833569682078</v>
+        <v>327.3063612716863</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>332.3828487604619</v>
+        <v>327.3465863636804</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>294.1871454207768</v>
+        <v>276.3549145665835</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>305.2840958027531</v>
+        <v>320.6392937892742</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>311.6868203917428</v>
+        <v>328.7341419379913</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>261.1942643835727</v>
+        <v>281.1405993085958</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>725.2672643201495</v>
+        <v>699.9754972501913</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>484.9741016174291</v>
+        <v>480.8396774228924</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>450.5091972423144</v>
+        <v>418.0861016304423</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>625.3382938020103</v>
+        <v>638.2460078233647</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>661.8903309022747</v>
+        <v>650.0943865543544</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>352.805528723732</v>
+        <v>356.6500472326944</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>333.7704895946226</v>
+        <v>351.1139566382458</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>614.9100128534848</v>
+        <v>515.6578179861364</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>507.3138238339981</v>
+        <v>477.8527656929041</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>617.776036786913</v>
+        <v>710.8160140238488</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>656.177021756272</v>
+        <v>642.3320419528836</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>351.9343995565903</v>
+        <v>362.5879933452733</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>249.2132949773447</v>
+        <v>252.5376413962237</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>284.0868628273134</v>
+        <v>296.9103966216923</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>489.932076945155</v>
+        <v>563.065716613062</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>728.1746603450831</v>
+        <v>647.0133438241456</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>360.7649560206184</v>
+        <v>368.0734294085116</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>206.6911511078406</v>
+        <v>201.935748532705</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>68.25089472272779</v>
+        <v>67.93834142107796</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>455.1011355934555</v>
+        <v>552.7328958699638</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>474.0315914919251</v>
+        <v>401.9262836808187</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>370.5934380507242</v>
+        <v>367.7221407078444</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>274.7267625563889</v>
+        <v>319.8315126873508</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>880.6864663965081</v>
+        <v>870.5929142784004</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>263.6441038407327</v>
+        <v>253.4467132248352</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>332.4289555069333</v>
+        <v>330.2420648725281</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>246.7898591408024</v>
+        <v>249.4827676294092</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>319.4532149298702</v>
+        <v>313.4293547250043</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>311.5459547645704</v>
+        <v>300.1429032615507</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>825.0577408909121</v>
+        <v>786.6509548821427</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>909.6484772261375</v>
+        <v>1094.172527754053</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>648.9299799510125</v>
+        <v>707.6366334463781</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>485.7093642699976</v>
+        <v>469.0458116390211</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>351.0586062485299</v>
+        <v>378.1257112128021</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>719.514869188784</v>
+        <v>712.1992323673677</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>282.7225254012703</v>
+        <v>310.1952658539988</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>342.6498500979441</v>
+        <v>284.6258498756845</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>465.0549985288317</v>
+        <v>556.3705295960451</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>236.6481770075249</v>
+        <v>265.3889543395528</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>252.2105489345128</v>
+        <v>272.0358185770117</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>383.9293830832572</v>
+        <v>401.9196394540691</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>248.1555360413082</v>
+        <v>262.3454782549249</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>295.8606360694732</v>
+        <v>287.5969183234868</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>242.63470439534</v>
+        <v>237.2148741126699</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>469.6741318531945</v>
+        <v>411.0286627809162</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>90.99125894093699</v>
+        <v>79.40568569884954</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>187.556042755614</v>
+        <v>173.9764940328106</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>824.2363870626451</v>
+        <v>667.5016831774184</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>314.7064852647562</v>
+        <v>310.298479698737</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>545.7918821708652</v>
+        <v>737.0377012791138</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>481.6193114762314</v>
+        <v>456.1821201585897</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>527.6839826428914</v>
+        <v>525.2388657527325</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>401.700111521014</v>
+        <v>418.5379796130966</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>350.8704288187034</v>
+        <v>364.5769446060174</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>515.8174835538891</v>
+        <v>579.0206544021796</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>296.2065297786238</v>
+        <v>276.9458690602433</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>246.3722439281509</v>
+        <v>262.1797207376167</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>526.2563911988844</v>
+        <v>509.6617022880143</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>305.2490886985881</v>
+        <v>323.3965521288923</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>505.2132652040124</v>
+        <v>573.0375906112225</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>493.6680517191545</v>
+        <v>517.9989321590812</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>646.4258521030042</v>
+        <v>642.318174673558</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>283.2072533333976</v>
+        <v>265.9578641321046</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>762.749290427166</v>
+        <v>791.4896052655384</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>329.4969511054101</v>
+        <v>307.6297149711572</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>275.0103929186109</v>
+        <v>273.3032172815169</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>417.6693556334727</v>
+        <v>435.3592484949941</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>881.1447954959821</v>
+        <v>869.7609649759135</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>238.9674837406713</v>
+        <v>238.2927330245741</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>760.073143833148</v>
+        <v>798.5445444749666</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>259.7358861712534</v>
+        <v>286.2058254187652</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>326.4694718237088</v>
+        <v>320.734093428879</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>682.3939143037128</v>
+        <v>636.7738254444926</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>588.9188646190914</v>
+        <v>522.4163617807658</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>278.1272329210418</v>
+        <v>292.0954272420884</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>716.6007399003594</v>
+        <v>884.0999502038152</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>341.7843906300595</v>
+        <v>361.3584041976886</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>299.7394160884497</v>
+        <v>326.1285191699608</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>325.3518345886622</v>
+        <v>322.7099810766106</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>309.2412077022182</v>
+        <v>313.204831449961</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>616.7975973259016</v>
+        <v>600.9855380789081</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>222.7043328434764</v>
+        <v>182.6358811888452</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>302.8674032861013</v>
+        <v>311.3289878612302</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>345.2395457701708</v>
+        <v>411.6980839735159</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>338.7666553385359</v>
+        <v>349.0115592978564</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>528.3723291768441</v>
+        <v>563.3013318022179</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>346.8836929377018</v>
+        <v>365.8598739560907</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>744.5054958132123</v>
+        <v>796.5588421933462</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>666.2375713168664</v>
+        <v>723.5048244067776</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>329.8449655726224</v>
+        <v>361.8565198002252</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>514.3359224523837</v>
+        <v>585.770080368889</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>317.5024861002942</v>
+        <v>270.2462459874561</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>515.0386289800114</v>
+        <v>483.36927582687</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>310.3709815979313</v>
+        <v>320.2991099159136</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>1361.544290182235</v>
+        <v>1468.635606046697</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>499.9239373736821</v>
+        <v>478.2883262099243</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>727.4030186829343</v>
+        <v>735.2614602398902</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>334.3721849727806</v>
+        <v>409.1128686529461</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>432.9696613338964</v>
+        <v>403.4756515624092</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>399.8174437058821</v>
+        <v>442.491145252429</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>283.195480028022</v>
+        <v>286.9937064317995</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>382.4338510384865</v>
+        <v>403.9015874476399</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>363.6987147070034</v>
+        <v>294.2305300917714</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>396.4313065081797</v>
+        <v>334.696911895327</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>966.9564429512524</v>
+        <v>908.8796323317139</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>717.0506383549762</v>
+        <v>692.6670888425471</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>447.9904277395863</v>
+        <v>422.2711174061187</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>345.8229158611674</v>
+        <v>417.0329400136192</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>300.0760789077771</v>
+        <v>250.9715075454156</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>263.6454950342167</v>
+        <v>271.0532799034615</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>116.0751910779295</v>
+        <v>128.759662638002</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>379.5861415357207</v>
+        <v>381.6511816186994</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>323.0628945486185</v>
+        <v>340.3506027653509</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>230.3163453781264</v>
+        <v>236.336485111676</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>421.132063529402</v>
+        <v>417.2643271060331</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>335.3174091054186</v>
+        <v>341.2294698727897</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>753.2117591329884</v>
+        <v>728.5486017674302</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>494.9798893678486</v>
+        <v>487.1942404692196</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>570.5864797498072</v>
+        <v>550.910833234998</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>804.1521910206274</v>
+        <v>929.5478240437002</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>360.8149354471435</v>
+        <v>330.2825137743178</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>352.0743145652827</v>
+        <v>351.1287574772413</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>307.0176338164835</v>
+        <v>305.4499745067351</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>549.5150221446385</v>
+        <v>491.6986699162896</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>347.4754504070717</v>
+        <v>328.9354935390984</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>319.4491111615181</v>
+        <v>347.5803542998846</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>227.4704769973863</v>
+        <v>224.2419597170812</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>593.3946606112327</v>
+        <v>511.9174868677898</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>308.5526218461285</v>
+        <v>302.1897657280152</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>436.4164271885733</v>
+        <v>437.813791523641</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>204.3315266179948</v>
+        <v>205.0406314272895</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>525.1669167257199</v>
+        <v>401.2568909683397</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>681.8943101956054</v>
+        <v>722.139377800522</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>472.2917085051489</v>
+        <v>462.5488449576282</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>294.8098234224125</v>
+        <v>264.3004232010539</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>424.5352934250198</v>
+        <v>492.3380571875389</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>356.7343795709101</v>
+        <v>429.0517362563853</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>492.8384012058078</v>
+        <v>463.3983033882646</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>531.8570242160166</v>
+        <v>528.9428499335758</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>286.9442411009935</v>
+        <v>326.5157079207841</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>476.8671041461537</v>
+        <v>557.5090130843308</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>469.9609913414618</v>
+        <v>475.8527589159011</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>403.361666544503</v>
+        <v>424.6575094806525</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>849.463648941226</v>
+        <v>806.8285503133263</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>814.4830554487887</v>
+        <v>819.0492517497134</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>309.6436308266257</v>
+        <v>300.6448546059127</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>345.6326421865299</v>
+        <v>396.7828544850991</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>496.0791459424078</v>
+        <v>486.3976563277719</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>260.0629371283218</v>
+        <v>260.5859841484054</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>666.5584394557002</v>
+        <v>644.5268188905544</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>253.2250381547636</v>
+        <v>235.4145587227924</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>3581.298021347239</v>
+        <v>3758.51723898723</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>292.0083765517286</v>
+        <v>309.0335742327947</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>593.9393654418699</v>
+        <v>571.9783162244483</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>216.5376106605121</v>
+        <v>261.5932431964943</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>230.2304470500701</v>
+        <v>234.879730077851</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>679.4053364730453</v>
+        <v>889.0693969790108</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>391.3756555906095</v>
+        <v>341.8932062492815</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>541.23961133076</v>
+        <v>602.2464413828598</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>441.3249927116294</v>
+        <v>417.2101539529315</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>263.8898690153555</v>
+        <v>267.7189315945069</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>309.2412077022182</v>
+        <v>313.204831449961</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>385.2118703604432</v>
+        <v>398.2572128797535</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>1490.545233715183</v>
+        <v>1171.606028053395</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>286.3348218171314</v>
+        <v>294.9061335377349</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>362.3182348235754</v>
+        <v>361.3707387217941</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>444.0196672272376</v>
+        <v>442.0703509180786</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>246.8442916735537</v>
+        <v>209.5620342415704</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>471.7147274743702</v>
+        <v>453.7719992436436</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>239.0930122400326</v>
+        <v>244.3444055231284</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>846.5369521954816</v>
+        <v>1009.557169313402</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>465.2156631980943</v>
+        <v>555.3713902394046</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>318.6891381958853</v>
+        <v>261.1484784711321</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>425.9353280003091</v>
+        <v>367.2781877899378</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>367.0437452042692</v>
+        <v>372.2819899826178</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>656.7410021139974</v>
+        <v>617.3184208365955</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>485.5104194431536</v>
+        <v>472.5676406504595</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>540.7660835267312</v>
+        <v>560.3159899692432</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>584.8866506438222</v>
+        <v>526.0673025030108</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>220.4604551218643</v>
+        <v>215.3315943841314</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>251.2536418293463</v>
+        <v>282.3097641396817</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>296.3612549239612</v>
+        <v>259.5580543994861</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>455.1317440618716</v>
+        <v>436.2151927106739</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>305.1452293058618</v>
+        <v>320.0576687488966</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278">
-        <v>268.6766407194946</v>
+        <v>302.7460929638514</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>950.5931663900798</v>
+        <v>953.3136834996136</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>459.9607086519331</v>
+        <v>475.5733853280983</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281">
-        <v>625.7089427536609</v>
+        <v>645.525210841397</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>574.4129442857504</v>
+        <v>591.4930836993162</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>312.5533003644326</v>
+        <v>327.8840804658295</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>672.1106437618135</v>
+        <v>784.1664107931343</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>610.1354986045575</v>
+        <v>556.6858124710271</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>425.0274918134782</v>
+        <v>439.921768802913</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>331.0757130389327</v>
+        <v>319.9622578291889</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>216.8368661677105</v>
+        <v>230.0601244983663</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>535.8276573568247</v>
+        <v>595.6788016224593</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>550.5093937744649</v>
+        <v>580.7105911699983</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>391.1112392919297</v>
+        <v>404.3952640866221</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>436.0842641068394</v>
+        <v>564.8708815276211</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>484.8775309888997</v>
+        <v>438.3533229116471</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>207.0338220517185</v>
+        <v>205.8720324914186</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>250.2492970831784</v>
+        <v>263.3814192822813</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>430.9701935226667</v>
+        <v>435.5241014241802</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>331.2825605328112</v>
+        <v>335.6292441722982</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>610.5985435168257</v>
+        <v>609.1188042277525</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>384.2279015318041</v>
+        <v>384.9241311674126</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>146.2718705373577</v>
+        <v>144.9473793866503</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>470.8354956149561</v>
+        <v>409.5038248583825</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>633.987276876163</v>
+        <v>503.0150148465349</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>876.4731221635769</v>
+        <v>917.4606156766392</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>390.7005535653843</v>
+        <v>475.0270295628468</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>196.7279126821214</v>
+        <v>222.7331548264926</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>374.4331763076659</v>
+        <v>391.1789397673269</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>297.3769297575862</v>
+        <v>312.5595943639295</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>1128.915600820135</v>
+        <v>1002.788495333731</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>791.8273010253872</v>
+        <v>875.8106093287596</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>579.3341486572901</v>
+        <v>555.4975538934769</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>885.9478692126563</v>
+        <v>884.9522825635207</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>763.5350331322197</v>
+        <v>793.228162908898</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>1242.246856097083</v>
+        <v>1117.906312951988</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>284.7489474378161</v>
+        <v>342.8493655404537</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>532.0359668504319</v>
+        <v>490.5235228845363</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>947.6291394159678</v>
+        <v>814.4207102300703</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>193.9456233269324</v>
+        <v>181.8251181696355</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>333.1056138853873</v>
+        <v>333.5534622523208</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>454.4933575186714</v>
+        <v>424.4926184989122</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>537.1315087964965</v>
+        <v>528.2197736358743</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>472.8555850777278</v>
+        <v>474.8202520468239</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>267.5158675932497</v>
+        <v>257.8293312344536</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>297.959802728546</v>
+        <v>315.0422062466918</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>351.5092954783345</v>
+        <v>436.6996663363796</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>2001.7913395518</v>
+        <v>1946.830011083205</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>493.3510836838053</v>
+        <v>495.0810001172719</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>478.7767953427267</v>
+        <v>493.7512545190642</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>684.5047722933364</v>
+        <v>511.2619306999504</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>618.9135984671277</v>
+        <v>574.2308647961507</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>819.6811890324684</v>
+        <v>1103.527934184845</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>334.3461414320066</v>
+        <v>325.1470455943743</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>633.7260147257381</v>
+        <v>628.6754283629974</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>885.3824477482608</v>
+        <v>1000.010710709056</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>1201.348549309184</v>
+        <v>990.4822013479244</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>336.022795636669</v>
+        <v>329.3269919589613</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>261.0014810398301</v>
+        <v>249.8422318766726</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>321.5075448850562</v>
+        <v>334.2177685827523</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>293.4301896861184</v>
+        <v>337.9012569393793</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>365.810162814328</v>
+        <v>398.0604757439407</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>122.050841372012</v>
+        <v>115.5940471819099</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>242.3123063427596</v>
+        <v>227.891017694258</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>334.8229085418794</v>
+        <v>289.4167793011877</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>473.2917195808405</v>
+        <v>434.2987872881324</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>538.5639653425064</v>
+        <v>522.4582743289322</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>319.1717206750251</v>
+        <v>263.4302370870436</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>1320.337960376453</v>
+        <v>1088.388563490419</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>179.8857543726535</v>
+        <v>182.3011376912114</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>258.0022478497571</v>
+        <v>272.9414680622018</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349">
-        <v>315.2282739558949</v>
+        <v>304.7931134300078</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350">
-        <v>437.3061742667318</v>
+        <v>515.6791649717995</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351">
-        <v>344.8347746470228</v>
+        <v>371.5085161620913</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352">
-        <v>565.5860114332238</v>
+        <v>587.038426554186</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353">
-        <v>464.3806155781443</v>
+        <v>483.9348364707571</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354">
-        <v>1017.513057563271</v>
+        <v>1013.139995680384</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355">
-        <v>545.2534623866148</v>
+        <v>436.6368218221678</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356">
-        <v>296.6080223270243</v>
+        <v>313.7336067295424</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357">
-        <v>461.6894462351606</v>
+        <v>475.4506869505258</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358">
-        <v>478.0559504377036</v>
+        <v>567.5101341026735</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359">
-        <v>487.040957166244</v>
+        <v>460.9749702943741</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360">
-        <v>842.1420119409222</v>
+        <v>821.3878572494012</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361">
-        <v>525.909891704607</v>
+        <v>425.6020009828535</v>
       </c>
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>838.3060699754898</v>
+        <v>764.5530792939761</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363">
-        <v>231.1977194751863</v>
+        <v>228.4234015420831</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364">
-        <v>663.2680617429023</v>
+        <v>606.2948696185666</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365">
-        <v>314.8337165055736</v>
+        <v>349.5960380269787</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366">
-        <v>716.3170521779888</v>
+        <v>663.318549255303</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
       <c r="A1367">
-        <v>399.7054226218144</v>
+        <v>396.0197400434359</v>
       </c>
     </row>
     <row r="1368" spans="1:1">
       <c r="A1368">
-        <v>742.2088357455567</v>
+        <v>792.5071185206338</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369">
-        <v>919.8826295125521</v>
+        <v>1061.959079167814</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370">
-        <v>594.7184992043084</v>
+        <v>629.1279106086046</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371">
-        <v>382.5547970492585</v>
+        <v>392.2865151172282</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372">
-        <v>417.5653221949884</v>
+        <v>360.6061766558504</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373">
-        <v>235.3876697396234</v>
+        <v>235.097369254714</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374">
-        <v>493.4262146918408</v>
+        <v>436.8170705427983</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>580.6561811969132</v>
+        <v>596.7899225421004</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376">
-        <v>960.0197188687579</v>
+        <v>1211.997115648373</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377">
-        <v>415.8550608817663</v>
+        <v>430.0900965629182</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378">
-        <v>1244.578887853488</v>
+        <v>1221.292424439779</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379">
-        <v>231.604938689214</v>
+        <v>207.6706784594076</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380">
-        <v>484.7740537876049</v>
+        <v>469.9949657212624</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381">
-        <v>294.0321145955646</v>
+        <v>294.579584543732</v>
       </c>
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>304.346900626235</v>
+        <v>329.6762776519575</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383">
-        <v>233.1604946275073</v>
+        <v>270.3101946156172</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
       <c r="A1384">
-        <v>256.442110560041</v>
+        <v>254.6408307744255</v>
       </c>
     </row>
     <row r="1385" spans="1:1">
       <c r="A1385">
-        <v>817.7580413539006</v>
+        <v>742.2176689529327</v>
       </c>
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386">
-        <v>340.8343613333918</v>
+        <v>311.7032254058382</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
       <c r="A1387">
-        <v>507.0601081788887</v>
+        <v>493.1552687401752</v>
       </c>
     </row>
     <row r="1388" spans="1:1">
       <c r="A1388">
-        <v>580.623675695487</v>
+        <v>605.8301189854601</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389">
-        <v>795.7911617467939</v>
+        <v>751.5330309699822</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390">
-        <v>359.7031002646986</v>
+        <v>359.6748645403639</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
       <c r="A1391">
-        <v>200.7413666395112</v>
+        <v>163.1319382070842</v>
       </c>
     </row>
     <row r="1392" spans="1:1">
       <c r="A1392">
-        <v>640.6624529132099</v>
+        <v>520.9510729146235</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393">
-        <v>400.858371347709</v>
+        <v>417.730135155193</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
       <c r="A1394">
-        <v>574.5211619709492</v>
+        <v>561.0936861558376</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395">
-        <v>932.546258205532</v>
+        <v>1019.332101582984</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396">
-        <v>325.8439695943973</v>
+        <v>241.7245750195845</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397">
-        <v>221.5448972712825</v>
+        <v>223.6462855113378</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398">
-        <v>511.2350352374425</v>
+        <v>436.4138423473322</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399">
-        <v>284.1924537402552</v>
+        <v>253.6850059653681</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400">
-        <v>336.2260862849923</v>
+        <v>332.6627056668517</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401">
-        <v>535.3676629779105</v>
+        <v>481.1766255471368</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402">
-        <v>1016.168097021831</v>
+        <v>1055.952594186997</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403">
-        <v>761.8147841290914</v>
+        <v>890.2003882927465</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
       <c r="A1404">
-        <v>792.7078127201373</v>
+        <v>853.641234345775</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405">
-        <v>129.2762311462948</v>
+        <v>129.6041497586622</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
       <c r="A1406">
-        <v>371.9054950911138</v>
+        <v>387.9342645944581</v>
       </c>
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407">
-        <v>243.2542300332369</v>
+        <v>254.9611854395268</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408">
-        <v>316.6462179637537</v>
+        <v>317.8634887135977</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409">
-        <v>218.121175495662</v>
+        <v>218.6514758456708</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
       <c r="A1410">
-        <v>1491.576001989345</v>
+        <v>1489.147941880418</v>
       </c>
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411">
-        <v>479.8950742993799</v>
+        <v>513.2960909672364</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
       <c r="A1412">
-        <v>654.0192161603131</v>
+        <v>691.8802064371298</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413">
-        <v>514.9985809611262</v>
+        <v>604.7498082663578</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414">
-        <v>646.6375112167354</v>
+        <v>663.6115845862554</v>
       </c>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415">
-        <v>595.4926699663424</v>
+        <v>611.8779043018277</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416">
-        <v>133.5523060356358</v>
+        <v>129.4537451866636</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417">
-        <v>412.9639025783037</v>
+        <v>329.4255422608562</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418">
-        <v>315.5258236356223</v>
+        <v>310.980318764691</v>
       </c>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419">
-        <v>373.1272447148272</v>
+        <v>319.2179044608653</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420">
-        <v>413.0601349144995</v>
+        <v>457.0976715507412</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421">
-        <v>442.2391599261755</v>
+        <v>504.9579718548445</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422">
-        <v>474.6882222215768</v>
+        <v>426.8407926576978</v>
       </c>
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>194.1865573483099</v>
+        <v>195.9528997466777</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424">
-        <v>945.6912093813331</v>
+        <v>1039.34909433159</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425">
-        <v>677.8580473272669</v>
+        <v>672.4372307012017</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>269.2367799894445</v>
+        <v>246.5267671913335</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427">
-        <v>276.1923076481665</v>
+        <v>268.3551600865418</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428">
-        <v>272.0601751753755</v>
+        <v>263.4362881669482</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429">
-        <v>480.3843351594552</v>
+        <v>533.6139035195338</v>
       </c>
     </row>
     <row r="1430" spans="1:1">
       <c r="A1430">
-        <v>320.1429173500545</v>
+        <v>323.8791069410249</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431">
-        <v>999.3084327867036</v>
+        <v>996.7080166501578</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432">
-        <v>807.4787138890603</v>
+        <v>826.759159108565</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433">
-        <v>157.5541182433934</v>
+        <v>158.7204555258392</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434">
-        <v>332.2601409591934</v>
+        <v>332.9090315058182</v>
       </c>
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435">
-        <v>249.2939609256462</v>
+        <v>275.042075874782</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436">
-        <v>681.1773586097331</v>
+        <v>551.0259977226309</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437">
-        <v>919.0834940370041</v>
+        <v>879.8932979149814</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438">
-        <v>449.2567877340668</v>
+        <v>388.2421171622399</v>
       </c>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>282.9588569391311</v>
+        <v>309.7517569890313</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440">
-        <v>253.9697036277206</v>
+        <v>292.0326182086192</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>258.1025656616251</v>
+        <v>261.1230102340964</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442">
-        <v>221.231725516853</v>
+        <v>230.1562808132504</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443">
-        <v>1459.47389530175</v>
+        <v>1507.522472758405</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444">
-        <v>388.4163594926879</v>
+        <v>359.6050442253458</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445">
-        <v>841.5550820272981</v>
+        <v>939.8418271800504</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446">
-        <v>612.0466655559457</v>
+        <v>646.092625637413</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447">
-        <v>134.1818729942806</v>
+        <v>132.8709193814497</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448">
-        <v>300.3368118097098</v>
+        <v>369.171261056364</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449">
-        <v>274.8275476140546</v>
+        <v>286.4642349545782</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450">
-        <v>260.0242021806069</v>
+        <v>281.5774925187448</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451">
-        <v>780.003543703666</v>
+        <v>742.6507190673473</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452">
-        <v>148.8858102259143</v>
+        <v>159.940053964377</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
       <c r="A1453">
-        <v>1293.013240205995</v>
+        <v>1269.928672789151</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454">
-        <v>526.7741308337177</v>
+        <v>502.9474075126209</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455">
-        <v>950.5931663900798</v>
+        <v>953.3136834996136</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456">
-        <v>148.0357837061268</v>
+        <v>139.0929400062506</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457">
-        <v>342.9043783250845</v>
+        <v>390.916617984251</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458">
-        <v>547.3126824359697</v>
+        <v>492.3934224617121</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459">
-        <v>514.6970843576686</v>
+        <v>492.6588790139533</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460">
-        <v>2350.958463723303</v>
+        <v>2384.780151648683</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461">
-        <v>755.9926168344774</v>
+        <v>631.9660437001793</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
       <c r="A1462">
-        <v>469.7973612668521</v>
+        <v>469.5043788227636</v>
       </c>
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463">
-        <v>393.0899545699342</v>
+        <v>351.8917363960121</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464">
-        <v>576.5804444068281</v>
+        <v>637.9194027634543</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
       <c r="A1465">
-        <v>271.8727387886129</v>
+        <v>280.4135694002443</v>
       </c>
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466">
-        <v>1478.935395655022</v>
+        <v>1483.44056273927</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467">
-        <v>316.282640099465</v>
+        <v>344.8145873608688</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468">
-        <v>565.6920232067953</v>
+        <v>600.609222395933</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>168.2825389466797</v>
+        <v>155.3392969844175</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470">
-        <v>211.852343503487</v>
+        <v>208.3777537900381</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471">
-        <v>242.3258117516429</v>
+        <v>238.7558421164562</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472">
-        <v>487.2198516859543</v>
+        <v>500.1903453507836</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>494.8116285405516</v>
+        <v>542.0347346954749</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474">
-        <v>773.2685340560906</v>
+        <v>788.042149465485</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475">
-        <v>126.2234311476559</v>
+        <v>125.4584512412071</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>363.7505541155373</v>
+        <v>403.8478727465618</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
       <c r="A1477">
-        <v>311.2207181385754</v>
+        <v>303.6720483001462</v>
       </c>
     </row>
     <row r="1478" spans="1:1">
       <c r="A1478">
-        <v>348.9413548133279</v>
+        <v>369.4573713506661</v>
       </c>
     </row>
     <row r="1479" spans="1:1">
       <c r="A1479">
-        <v>313.2417552050993</v>
+        <v>287.5131614428889</v>
       </c>
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480">
-        <v>348.9284190512703</v>
+        <v>336.5435527184466</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
       <c r="A1481">
-        <v>461.068617204082</v>
+        <v>483.2802094154537</v>
       </c>
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482">
-        <v>970.6366188545996</v>
+        <v>969.5112052575626</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
       <c r="A1483">
-        <v>432.6397807375832</v>
+        <v>461.8800642438363</v>
       </c>
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484">
-        <v>171.4855762615349</v>
+        <v>160.8892884097473</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485">
-        <v>881.1030069179748</v>
+        <v>961.4695389490101</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
       <c r="A1486">
-        <v>889.7803334040348</v>
+        <v>804.5963641746346</v>
       </c>
     </row>
     <row r="1487" spans="1:1">
       <c r="A1487">
-        <v>292.6956432503169</v>
+        <v>312.1764141971729</v>
       </c>
     </row>
     <row r="1488" spans="1:1">
       <c r="A1488">
-        <v>269.3453263398462</v>
+        <v>240.5865466067387</v>
       </c>
     </row>
     <row r="1489" spans="1:1">
       <c r="A1489">
-        <v>388.6415758033483</v>
+        <v>395.5719616186994</v>
       </c>
     </row>
     <row r="1490" spans="1:1">
       <c r="A1490">
-        <v>509.3646140459867</v>
+        <v>491.0799844008111</v>
       </c>
     </row>
     <row r="1491" spans="1:1">
       <c r="A1491">
-        <v>606.1981186126031</v>
+        <v>513.2471840204929</v>
       </c>
     </row>
     <row r="1492" spans="1:1">
       <c r="A1492">
-        <v>628.9080196301711</v>
+        <v>628.3254218789593</v>
       </c>
     </row>
     <row r="1493" spans="1:1">
       <c r="A1493">
-        <v>281.1166976553391</v>
+        <v>268.328720382002</v>
       </c>
     </row>
     <row r="1494" spans="1:1">
       <c r="A1494">
-        <v>504.3291071463978</v>
+        <v>649.3676549294597</v>
       </c>
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495">
-        <v>582.9384337702875</v>
+        <v>612.0641875576885</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
       <c r="A1496">
-        <v>930.9278604983753</v>
+        <v>950.7704538149311</v>
       </c>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497">
-        <v>666.1131922811131</v>
+        <v>655.3542554339243</v>
       </c>
     </row>
     <row r="1498" spans="1:1">
       <c r="A1498">
-        <v>292.6250052337462</v>
+        <v>249.6181723244796</v>
       </c>
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499">
-        <v>2656.34445822404</v>
+        <v>2617.095741894777</v>
       </c>
     </row>
     <row r="1500" spans="1:1">
       <c r="A1500">
-        <v>298.9680203353217</v>
+        <v>311.1163442349616</v>
       </c>
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501">
-        <v>462.0841534782432</v>
+        <v>464.2025569707276</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502">
-        <v>361.0376003354017</v>
+        <v>333.7359159729283</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
       <c r="A1503">
-        <v>195.4579553293589</v>
+        <v>203.2410461615613</v>
       </c>
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504">
-        <v>314.6472656998065</v>
+        <v>319.3273795643261</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505">
-        <v>585.9739346469927</v>
+        <v>613.7141746405437</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506">
-        <v>857.8525315533436</v>
+        <v>792.3958558362024</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
       <c r="A1507">
-        <v>264.1802216046113</v>
+        <v>278.4732847605703</v>
       </c>
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508">
-        <v>330.7942216290515</v>
+        <v>304.2162897864908</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
       <c r="A1509">
-        <v>846.5408600610552</v>
+        <v>924.7058041136083</v>
       </c>
     </row>
     <row r="1510" spans="1:1">
       <c r="A1510">
-        <v>397.4317612618918</v>
+        <v>421.0873276099546</v>
       </c>
     </row>
     <row r="1511" spans="1:1">
       <c r="A1511">
-        <v>484.4591555676972</v>
+        <v>448.2096684213036</v>
       </c>
     </row>
     <row r="1512" spans="1:1">
       <c r="A1512">
-        <v>1150.871252659083</v>
+        <v>1068.211459727773</v>
       </c>
     </row>
     <row r="1513" spans="1:1">
       <c r="A1513">
-        <v>412.2743204988003</v>
+        <v>415.5593730051443</v>
       </c>
     </row>
     <row r="1514" spans="1:1">
       <c r="A1514">
-        <v>129.3666248290019</v>
+        <v>136.3928323987447</v>
       </c>
     </row>
     <row r="1515" spans="1:1">
       <c r="A1515">
-        <v>152.8384793483963</v>
+        <v>164.3838448027552</v>
       </c>
     </row>
     <row r="1516" spans="1:1">
       <c r="A1516">
-        <v>313.8887387262715</v>
+        <v>341.0788192111356</v>
       </c>
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517">
-        <v>743.4590345810642</v>
+        <v>641.420609977519</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518">
-        <v>266.4233588229064</v>
+        <v>267.714657282206</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
       <c r="A1519">
-        <v>267.7450641542891</v>
+        <v>249.2065775258808</v>
       </c>
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520">
-        <v>395.6190463563731</v>
+        <v>470.6993742398253</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521">
-        <v>319.4932622519003</v>
+        <v>321.0600026087221</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522">
-        <v>121.5155893139999</v>
+        <v>130.7203384167035</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523">
-        <v>1115.577622543914</v>
+        <v>1033.108899448748</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524">
-        <v>416.207475780995</v>
+        <v>369.2611774832289</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525">
-        <v>218.8612983504788</v>
+        <v>198.2230772829243</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526">
-        <v>566.0402361839937</v>
+        <v>578.7093133978715</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527">
-        <v>432.2659730409351</v>
+        <v>445.2859111585017</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528">
-        <v>367.6831311953352</v>
+        <v>339.7874692419782</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529">
-        <v>762.3479267035816</v>
+        <v>683.8301290639465</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530">
-        <v>901.1509065187187</v>
+        <v>921.7220705792254</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531">
-        <v>330.4861167406507</v>
+        <v>321.9243444784452</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532">
-        <v>1043.11030572917</v>
+        <v>1077.135079109669</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533">
-        <v>392.9689793826486</v>
+        <v>402.7925058989284</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534">
-        <v>491.7725415353426</v>
+        <v>449.5047551392205</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535">
-        <v>390.4955020460572</v>
+        <v>357.9798873493831</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536">
-        <v>540.9383569291999</v>
+        <v>535.5966944430223</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537">
-        <v>612.3299106642176</v>
+        <v>698.5065787048733</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538">
-        <v>337.2351301874502</v>
+        <v>344.2592185861209</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539">
-        <v>456.9608730017745</v>
+        <v>538.4155928619402</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540">
-        <v>860.2168163459124</v>
+        <v>809.0617502359984</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541">
-        <v>549.8945992849366</v>
+        <v>500.8122192511676</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542">
-        <v>521.8671400568181</v>
+        <v>495.413812531501</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543">
-        <v>470.1655998588277</v>
+        <v>462.0585258377041</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544">
-        <v>284.2976310673954</v>
+        <v>274.3589896965019</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545">
-        <v>380.9604911581895</v>
+        <v>393.3593328824198</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546">
-        <v>920.8094089372812</v>
+        <v>943.7549448989155</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547">
-        <v>672.4727824331899</v>
+        <v>661.9358823347255</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548">
-        <v>199.7587578444981</v>
+        <v>185.2049205997879</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549">
-        <v>721.681058896393</v>
+        <v>714.4845486542134</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550">
-        <v>317.1213639073875</v>
+        <v>336.3395713117835</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551">
-        <v>232.9744438313227</v>
+        <v>248.2555527274939</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552">
-        <v>2316.983294324297</v>
+        <v>2368.093109460677</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553">
-        <v>653.2778429123302</v>
+        <v>584.1262109998501</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554">
-        <v>499.6192653548941</v>
+        <v>540.1701355998655</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555">
-        <v>314.420132358739</v>
+        <v>264.2756422653201</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556">
-        <v>871.0744615438743</v>
+        <v>855.0457752960446</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557">
-        <v>1705.794535186284</v>
+        <v>1653.850098775971</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558">
-        <v>181.5572064264006</v>
+        <v>190.1140866330567</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559">
-        <v>602.9434653734653</v>
+        <v>525.1940580916621</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560">
-        <v>456.3375755055951</v>
+        <v>422.8103208003195</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561">
-        <v>671.4114258128309</v>
+        <v>779.6480355190879</v>
       </c>
     </row>
   </sheetData>
